--- a/Ouch/GAM100_Project_Rubric_v2.xlsx
+++ b/Ouch/GAM100_Project_Rubric_v2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\User\Desktop\GAM100\Ouch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7425ED7-AD38-4C2F-8BFF-6FF7F35884C7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8F1EB3-82B6-4986-B5BF-DBA666374341}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2187,17 +2187,301 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -2211,18 +2495,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2253,15 +2525,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2302,283 +2565,29 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2592,6 +2601,135 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="79" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="79" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -2604,12 +2742,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2626,137 +2758,53 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="79" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="79" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2806,55 +2854,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3180,47 +3180,47 @@
     </row>
     <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="173" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="87"/>
-      <c r="P2" s="87"/>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="87"/>
-      <c r="S2" s="88"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="174"/>
+      <c r="I2" s="174"/>
+      <c r="J2" s="174"/>
+      <c r="K2" s="174"/>
+      <c r="L2" s="174"/>
+      <c r="M2" s="174"/>
+      <c r="N2" s="174"/>
+      <c r="O2" s="174"/>
+      <c r="P2" s="174"/>
+      <c r="Q2" s="174"/>
+      <c r="R2" s="174"/>
+      <c r="S2" s="175"/>
     </row>
     <row r="3" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="89"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="90"/>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="90"/>
-      <c r="S3" s="91"/>
+      <c r="B3" s="176"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="177"/>
+      <c r="E3" s="177"/>
+      <c r="F3" s="177"/>
+      <c r="G3" s="177"/>
+      <c r="H3" s="177"/>
+      <c r="I3" s="177"/>
+      <c r="J3" s="177"/>
+      <c r="K3" s="177"/>
+      <c r="L3" s="177"/>
+      <c r="M3" s="177"/>
+      <c r="N3" s="177"/>
+      <c r="O3" s="177"/>
+      <c r="P3" s="177"/>
+      <c r="Q3" s="177"/>
+      <c r="R3" s="177"/>
+      <c r="S3" s="178"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
@@ -3245,76 +3245,76 @@
     </row>
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="95" t="s">
+      <c r="B5" s="143" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="97"/>
+      <c r="C5" s="144"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="145"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="95" t="s">
+      <c r="G5" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="96"/>
-      <c r="K5" s="97"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="144"/>
+      <c r="K5" s="145"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="95" t="s">
+      <c r="M5" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="96"/>
-      <c r="O5" s="96"/>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="97"/>
+      <c r="N5" s="144"/>
+      <c r="O5" s="144"/>
+      <c r="P5" s="144"/>
+      <c r="Q5" s="145"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="98" t="s">
+      <c r="B6" s="182" t="s">
         <v>142</v>
       </c>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="100"/>
+      <c r="C6" s="183"/>
+      <c r="D6" s="183"/>
+      <c r="E6" s="184"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="98" t="s">
+      <c r="G6" s="182" t="s">
         <v>141</v>
       </c>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="100"/>
+      <c r="H6" s="183"/>
+      <c r="I6" s="183"/>
+      <c r="J6" s="183"/>
+      <c r="K6" s="184"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="98" t="s">
+      <c r="M6" s="182" t="s">
         <v>143</v>
       </c>
-      <c r="N6" s="99"/>
-      <c r="O6" s="99"/>
-      <c r="P6" s="99"/>
-      <c r="Q6" s="100"/>
+      <c r="N6" s="183"/>
+      <c r="O6" s="183"/>
+      <c r="P6" s="183"/>
+      <c r="Q6" s="184"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="101"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="103"/>
+      <c r="B7" s="185"/>
+      <c r="C7" s="186"/>
+      <c r="D7" s="186"/>
+      <c r="E7" s="187"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="103"/>
+      <c r="G7" s="185"/>
+      <c r="H7" s="186"/>
+      <c r="I7" s="186"/>
+      <c r="J7" s="186"/>
+      <c r="K7" s="187"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="101"/>
-      <c r="N7" s="102"/>
-      <c r="O7" s="102"/>
-      <c r="P7" s="102"/>
-      <c r="Q7" s="103"/>
+      <c r="M7" s="185"/>
+      <c r="N7" s="186"/>
+      <c r="O7" s="186"/>
+      <c r="P7" s="186"/>
+      <c r="Q7" s="187"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
     </row>
@@ -3362,18 +3362,18 @@
     </row>
     <row r="10" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="146" t="s">
+      <c r="B10" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="147"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="107"/>
+      <c r="I10" s="107"/>
+      <c r="J10" s="107"/>
+      <c r="K10" s="108"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -3391,31 +3391,31 @@
       <c r="C11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="120" t="s">
+      <c r="D11" s="163" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="121"/>
-      <c r="F11" s="120" t="s">
+      <c r="E11" s="138"/>
+      <c r="F11" s="163" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="121"/>
-      <c r="H11" s="121"/>
+      <c r="G11" s="138"/>
+      <c r="H11" s="138"/>
       <c r="I11" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="J11" s="120" t="s">
+      <c r="J11" s="163" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="122"/>
+      <c r="K11" s="164"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="95" t="s">
+      <c r="N11" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="O11" s="96"/>
-      <c r="P11" s="96"/>
-      <c r="Q11" s="96"/>
-      <c r="R11" s="97"/>
+      <c r="O11" s="144"/>
+      <c r="P11" s="144"/>
+      <c r="Q11" s="144"/>
+      <c r="R11" s="145"/>
       <c r="S11" s="1"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -3426,33 +3426,33 @@
       <c r="C12" s="65" t="s">
         <v>146</v>
       </c>
-      <c r="D12" s="104" t="s">
+      <c r="D12" s="188" t="s">
         <v>151</v>
       </c>
-      <c r="E12" s="104"/>
-      <c r="F12" s="106">
-        <v>0</v>
-      </c>
-      <c r="G12" s="106"/>
-      <c r="H12" s="106"/>
+      <c r="E12" s="188"/>
+      <c r="F12" s="190">
+        <v>0</v>
+      </c>
+      <c r="G12" s="190"/>
+      <c r="H12" s="190"/>
       <c r="I12" s="74">
         <v>0</v>
       </c>
-      <c r="J12" s="123">
+      <c r="J12" s="165">
         <f>$N$12+F12+(I12*-1)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="124"/>
+      <c r="K12" s="166"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="110">
+      <c r="N12" s="155">
         <f>SUM(P14:R21)</f>
         <v>0</v>
       </c>
-      <c r="O12" s="111"/>
-      <c r="P12" s="111"/>
-      <c r="Q12" s="111"/>
-      <c r="R12" s="112"/>
+      <c r="O12" s="156"/>
+      <c r="P12" s="156"/>
+      <c r="Q12" s="156"/>
+      <c r="R12" s="157"/>
       <c r="S12" s="1"/>
     </row>
     <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3463,30 +3463,30 @@
       <c r="C13" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="D13" s="104" t="s">
+      <c r="D13" s="188" t="s">
         <v>150</v>
       </c>
-      <c r="E13" s="104"/>
-      <c r="F13" s="106">
-        <v>0</v>
-      </c>
-      <c r="G13" s="106"/>
-      <c r="H13" s="106"/>
+      <c r="E13" s="188"/>
+      <c r="F13" s="190">
+        <v>3</v>
+      </c>
+      <c r="G13" s="190"/>
+      <c r="H13" s="190"/>
       <c r="I13" s="74">
         <v>0</v>
       </c>
-      <c r="J13" s="125">
+      <c r="J13" s="90">
         <f t="shared" ref="J13:J16" si="0">$N$12+F13+(I13*-1)</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="126"/>
+        <v>3</v>
+      </c>
+      <c r="K13" s="91"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="113"/>
-      <c r="O13" s="114"/>
-      <c r="P13" s="114"/>
-      <c r="Q13" s="114"/>
-      <c r="R13" s="115"/>
+      <c r="N13" s="158"/>
+      <c r="O13" s="159"/>
+      <c r="P13" s="159"/>
+      <c r="Q13" s="159"/>
+      <c r="R13" s="160"/>
       <c r="S13" s="1"/>
     </row>
     <row r="14" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3497,35 +3497,35 @@
       <c r="C14" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="D14" s="104" t="s">
+      <c r="D14" s="188" t="s">
         <v>153</v>
       </c>
-      <c r="E14" s="104"/>
-      <c r="F14" s="106">
-        <v>0</v>
-      </c>
-      <c r="G14" s="106"/>
-      <c r="H14" s="106"/>
+      <c r="E14" s="188"/>
+      <c r="F14" s="190">
+        <v>0</v>
+      </c>
+      <c r="G14" s="190"/>
+      <c r="H14" s="190"/>
       <c r="I14" s="74">
         <v>0</v>
       </c>
-      <c r="J14" s="125">
+      <c r="J14" s="90">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K14" s="126"/>
+      <c r="K14" s="91"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="116" t="s">
+      <c r="N14" s="152" t="s">
         <v>48</v>
       </c>
-      <c r="O14" s="117"/>
-      <c r="P14" s="118">
+      <c r="O14" s="107"/>
+      <c r="P14" s="161">
         <f>Rubric!E3</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="118"/>
-      <c r="R14" s="119"/>
+      <c r="Q14" s="161"/>
+      <c r="R14" s="162"/>
       <c r="S14" s="1"/>
     </row>
     <row r="15" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3536,68 +3536,68 @@
       <c r="C15" s="65" t="s">
         <v>149</v>
       </c>
-      <c r="D15" s="104" t="s">
+      <c r="D15" s="188" t="s">
         <v>152</v>
       </c>
-      <c r="E15" s="104"/>
-      <c r="F15" s="106">
-        <v>0</v>
-      </c>
-      <c r="G15" s="106"/>
-      <c r="H15" s="106"/>
+      <c r="E15" s="188"/>
+      <c r="F15" s="190">
+        <v>0</v>
+      </c>
+      <c r="G15" s="190"/>
+      <c r="H15" s="190"/>
       <c r="I15" s="74">
         <v>0</v>
       </c>
-      <c r="J15" s="125">
+      <c r="J15" s="90">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K15" s="126"/>
+      <c r="K15" s="91"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="133" t="s">
-        <v>0</v>
-      </c>
-      <c r="O15" s="121"/>
-      <c r="P15" s="134">
+      <c r="N15" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="O15" s="138"/>
+      <c r="P15" s="139">
         <f>Rubric!E38</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="134"/>
-      <c r="R15" s="135"/>
+      <c r="Q15" s="139"/>
+      <c r="R15" s="140"/>
       <c r="S15" s="1"/>
     </row>
     <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="66"/>
       <c r="C16" s="67"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="107">
-        <v>0</v>
-      </c>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
+      <c r="D16" s="189"/>
+      <c r="E16" s="189"/>
+      <c r="F16" s="191">
+        <v>0</v>
+      </c>
+      <c r="G16" s="191"/>
+      <c r="H16" s="191"/>
       <c r="I16" s="75">
         <v>0</v>
       </c>
-      <c r="J16" s="189">
+      <c r="J16" s="92">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K16" s="190"/>
+      <c r="K16" s="93"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-      <c r="N16" s="133" t="s">
+      <c r="N16" s="137" t="s">
         <v>81</v>
       </c>
-      <c r="O16" s="121"/>
-      <c r="P16" s="134">
+      <c r="O16" s="138"/>
+      <c r="P16" s="139">
         <f>Rubric!E73</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="134"/>
-      <c r="R16" s="135"/>
+      <c r="Q16" s="139"/>
+      <c r="R16" s="140"/>
       <c r="S16" s="1"/>
     </row>
     <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3614,66 +3614,66 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="129" t="s">
+      <c r="N17" s="130" t="s">
         <v>98</v>
       </c>
-      <c r="O17" s="130"/>
-      <c r="P17" s="136">
+      <c r="O17" s="131"/>
+      <c r="P17" s="141">
         <f>Rubric!E101</f>
         <v>0</v>
       </c>
-      <c r="Q17" s="136"/>
-      <c r="R17" s="137"/>
+      <c r="Q17" s="141"/>
+      <c r="R17" s="142"/>
       <c r="S17" s="1"/>
     </row>
     <row r="18" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="183" t="s">
+      <c r="B18" s="84" t="s">
         <v>138</v>
       </c>
-      <c r="C18" s="184"/>
-      <c r="D18" s="184"/>
-      <c r="E18" s="187">
+      <c r="C18" s="85"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="88">
         <v>0</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-      <c r="N18" s="76" t="s">
+      <c r="N18" s="109" t="s">
         <v>107</v>
       </c>
-      <c r="O18" s="77"/>
-      <c r="P18" s="108">
+      <c r="O18" s="134"/>
+      <c r="P18" s="135">
         <f>Rubric!E136</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="108"/>
-      <c r="R18" s="109"/>
+      <c r="Q18" s="135"/>
+      <c r="R18" s="136"/>
       <c r="S18" s="1"/>
     </row>
     <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="185" t="s">
+      <c r="B19" s="86" t="s">
         <v>139</v>
       </c>
-      <c r="C19" s="186"/>
-      <c r="D19" s="186"/>
-      <c r="E19" s="188"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="89"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-      <c r="N19" s="76" t="s">
+      <c r="N19" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="O19" s="77"/>
-      <c r="P19" s="108">
+      <c r="O19" s="134"/>
+      <c r="P19" s="135">
         <f>Rubric!E148</f>
         <v>0</v>
       </c>
-      <c r="Q19" s="108"/>
-      <c r="R19" s="109"/>
+      <c r="Q19" s="135"/>
+      <c r="R19" s="136"/>
       <c r="S19" s="1"/>
     </row>
     <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3682,16 +3682,16 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="76" t="s">
+      <c r="N20" s="109" t="s">
         <v>140</v>
       </c>
-      <c r="O20" s="148"/>
-      <c r="P20" s="108">
+      <c r="O20" s="110"/>
+      <c r="P20" s="135">
         <f>(E18*-1)</f>
         <v>0</v>
       </c>
-      <c r="Q20" s="108"/>
-      <c r="R20" s="109"/>
+      <c r="Q20" s="135"/>
+      <c r="R20" s="136"/>
       <c r="S20" s="1"/>
     </row>
     <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3700,30 +3700,30 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-      <c r="N21" s="76" t="s">
+      <c r="N21" s="109" t="s">
         <v>125</v>
       </c>
-      <c r="O21" s="77"/>
-      <c r="P21" s="108">
+      <c r="O21" s="134"/>
+      <c r="P21" s="135">
         <f>I29</f>
         <v>0</v>
       </c>
-      <c r="Q21" s="108"/>
-      <c r="R21" s="109"/>
+      <c r="Q21" s="135"/>
+      <c r="R21" s="136"/>
       <c r="S21" s="1"/>
     </row>
     <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="175" t="s">
+      <c r="B22" s="76" t="s">
         <v>123</v>
       </c>
-      <c r="C22" s="176"/>
-      <c r="D22" s="176"/>
-      <c r="E22" s="176"/>
-      <c r="F22" s="176"/>
-      <c r="G22" s="176"/>
-      <c r="H22" s="176"/>
-      <c r="I22" s="177"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="78"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -3738,14 +3738,14 @@
     <row r="23" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="72"/>
-      <c r="C23" s="191" t="s">
+      <c r="C23" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="192"/>
-      <c r="E23" s="192"/>
-      <c r="F23" s="192"/>
-      <c r="G23" s="192"/>
-      <c r="H23" s="193"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="95"/>
+      <c r="G23" s="95"/>
+      <c r="H23" s="96"/>
       <c r="I23" s="73" t="s">
         <v>2</v>
       </c>
@@ -3753,24 +3753,24 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
-      <c r="N23" s="95" t="s">
+      <c r="N23" s="143" t="s">
         <v>16</v>
       </c>
-      <c r="O23" s="96"/>
-      <c r="P23" s="96"/>
-      <c r="Q23" s="96"/>
-      <c r="R23" s="97"/>
+      <c r="O23" s="144"/>
+      <c r="P23" s="144"/>
+      <c r="Q23" s="144"/>
+      <c r="R23" s="145"/>
       <c r="S23" s="1"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="167"/>
-      <c r="C24" s="168"/>
-      <c r="D24" s="168"/>
-      <c r="E24" s="168"/>
-      <c r="F24" s="168"/>
-      <c r="G24" s="168"/>
-      <c r="H24" s="169"/>
+      <c r="B24" s="97"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="98"/>
+      <c r="G24" s="98"/>
+      <c r="H24" s="99"/>
       <c r="I24" s="68">
         <v>0</v>
       </c>
@@ -3778,25 +3778,25 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
-      <c r="N24" s="138">
+      <c r="N24" s="146">
         <f>SUM(P26:R33)</f>
         <v>93</v>
       </c>
-      <c r="O24" s="139"/>
-      <c r="P24" s="139"/>
-      <c r="Q24" s="139"/>
-      <c r="R24" s="140"/>
+      <c r="O24" s="147"/>
+      <c r="P24" s="147"/>
+      <c r="Q24" s="147"/>
+      <c r="R24" s="148"/>
       <c r="S24" s="1"/>
     </row>
     <row r="25" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
-      <c r="B25" s="149"/>
-      <c r="C25" s="150"/>
-      <c r="D25" s="150"/>
-      <c r="E25" s="150"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="150"/>
-      <c r="H25" s="151"/>
+      <c r="B25" s="100"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="101"/>
+      <c r="H25" s="102"/>
       <c r="I25" s="69">
         <v>0</v>
       </c>
@@ -3804,22 +3804,22 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
-      <c r="N25" s="141"/>
-      <c r="O25" s="142"/>
-      <c r="P25" s="142"/>
-      <c r="Q25" s="142"/>
-      <c r="R25" s="143"/>
+      <c r="N25" s="149"/>
+      <c r="O25" s="150"/>
+      <c r="P25" s="150"/>
+      <c r="Q25" s="150"/>
+      <c r="R25" s="151"/>
       <c r="S25" s="1"/>
     </row>
     <row r="26" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
-      <c r="B26" s="149"/>
-      <c r="C26" s="150"/>
-      <c r="D26" s="150"/>
-      <c r="E26" s="150"/>
-      <c r="F26" s="150"/>
-      <c r="G26" s="150"/>
-      <c r="H26" s="151"/>
+      <c r="B26" s="100"/>
+      <c r="C26" s="101"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="101"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="101"/>
+      <c r="H26" s="102"/>
       <c r="I26" s="69">
         <v>0</v>
       </c>
@@ -3827,27 +3827,27 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
-      <c r="N26" s="116" t="s">
+      <c r="N26" s="152" t="s">
         <v>48</v>
       </c>
-      <c r="O26" s="117"/>
-      <c r="P26" s="144">
+      <c r="O26" s="107"/>
+      <c r="P26" s="153">
         <f>Rubric!D3</f>
         <v>24</v>
       </c>
-      <c r="Q26" s="144"/>
-      <c r="R26" s="145"/>
+      <c r="Q26" s="153"/>
+      <c r="R26" s="154"/>
       <c r="S26" s="1"/>
     </row>
     <row r="27" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
-      <c r="B27" s="149"/>
-      <c r="C27" s="150"/>
-      <c r="D27" s="150"/>
-      <c r="E27" s="150"/>
-      <c r="F27" s="150"/>
-      <c r="G27" s="150"/>
-      <c r="H27" s="151"/>
+      <c r="B27" s="100"/>
+      <c r="C27" s="101"/>
+      <c r="D27" s="101"/>
+      <c r="E27" s="101"/>
+      <c r="F27" s="101"/>
+      <c r="G27" s="101"/>
+      <c r="H27" s="102"/>
       <c r="I27" s="69">
         <v>0</v>
       </c>
@@ -3855,27 +3855,27 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
-      <c r="N27" s="133" t="s">
-        <v>0</v>
-      </c>
-      <c r="O27" s="121"/>
-      <c r="P27" s="127">
+      <c r="N27" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="O27" s="138"/>
+      <c r="P27" s="128">
         <f>Rubric!D38</f>
         <v>34</v>
       </c>
-      <c r="Q27" s="127"/>
-      <c r="R27" s="128"/>
+      <c r="Q27" s="128"/>
+      <c r="R27" s="129"/>
       <c r="S27" s="1"/>
     </row>
     <row r="28" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
-      <c r="B28" s="152"/>
-      <c r="C28" s="153"/>
-      <c r="D28" s="153"/>
-      <c r="E28" s="153"/>
-      <c r="F28" s="153"/>
-      <c r="G28" s="153"/>
-      <c r="H28" s="154"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="104"/>
+      <c r="D28" s="104"/>
+      <c r="E28" s="104"/>
+      <c r="F28" s="104"/>
+      <c r="G28" s="104"/>
+      <c r="H28" s="105"/>
       <c r="I28" s="70">
         <v>0</v>
       </c>
@@ -3883,29 +3883,29 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="133" t="s">
+      <c r="N28" s="137" t="s">
         <v>81</v>
       </c>
-      <c r="O28" s="121"/>
-      <c r="P28" s="127">
+      <c r="O28" s="138"/>
+      <c r="P28" s="128">
         <f>Rubric!D73</f>
         <v>19</v>
       </c>
-      <c r="Q28" s="127"/>
-      <c r="R28" s="128"/>
+      <c r="Q28" s="128"/>
+      <c r="R28" s="129"/>
       <c r="S28" s="1"/>
     </row>
     <row r="29" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
-      <c r="B29" s="170" t="s">
+      <c r="B29" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="171"/>
-      <c r="D29" s="171"/>
-      <c r="E29" s="171"/>
-      <c r="F29" s="171"/>
-      <c r="G29" s="171"/>
-      <c r="H29" s="172"/>
+      <c r="C29" s="124"/>
+      <c r="D29" s="124"/>
+      <c r="E29" s="124"/>
+      <c r="F29" s="124"/>
+      <c r="G29" s="124"/>
+      <c r="H29" s="125"/>
       <c r="I29" s="10">
         <f>SUM(I24:I28)</f>
         <v>0</v>
@@ -3914,16 +3914,16 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
-      <c r="N29" s="129" t="s">
+      <c r="N29" s="130" t="s">
         <v>98</v>
       </c>
-      <c r="O29" s="130"/>
-      <c r="P29" s="131">
+      <c r="O29" s="131"/>
+      <c r="P29" s="132">
         <f>Rubric!D101</f>
         <v>16</v>
       </c>
-      <c r="Q29" s="131"/>
-      <c r="R29" s="132"/>
+      <c r="Q29" s="132"/>
+      <c r="R29" s="133"/>
       <c r="S29" s="1"/>
     </row>
     <row r="30" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3932,16 +3932,16 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-      <c r="N30" s="76" t="s">
+      <c r="N30" s="109" t="s">
         <v>107</v>
       </c>
-      <c r="O30" s="77"/>
-      <c r="P30" s="78">
+      <c r="O30" s="134"/>
+      <c r="P30" s="192">
         <f>Rubric!D136</f>
         <v>0</v>
       </c>
-      <c r="Q30" s="78"/>
-      <c r="R30" s="79"/>
+      <c r="Q30" s="192"/>
+      <c r="R30" s="193"/>
       <c r="S30" s="1"/>
     </row>
     <row r="31" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3950,44 +3950,44 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
-      <c r="N31" s="76" t="s">
+      <c r="N31" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="O31" s="77"/>
-      <c r="P31" s="78">
+      <c r="O31" s="134"/>
+      <c r="P31" s="192">
         <f>Rubric!D148</f>
         <v>0</v>
       </c>
-      <c r="Q31" s="78"/>
-      <c r="R31" s="79"/>
+      <c r="Q31" s="192"/>
+      <c r="R31" s="193"/>
       <c r="S31" s="1"/>
     </row>
     <row r="32" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
-      <c r="B32" s="178" t="s">
+      <c r="B32" s="79" t="s">
         <v>124</v>
       </c>
-      <c r="C32" s="179"/>
-      <c r="D32" s="179"/>
-      <c r="E32" s="179"/>
-      <c r="F32" s="179"/>
-      <c r="G32" s="179"/>
-      <c r="H32" s="179"/>
-      <c r="I32" s="179"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="80"/>
+      <c r="F32" s="80"/>
+      <c r="G32" s="80"/>
+      <c r="H32" s="80"/>
+      <c r="I32" s="80"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
-      <c r="N32" s="76" t="s">
+      <c r="N32" s="109" t="s">
         <v>140</v>
       </c>
-      <c r="O32" s="77"/>
-      <c r="P32" s="78">
+      <c r="O32" s="134"/>
+      <c r="P32" s="192">
         <f>(E18*-1)</f>
         <v>0</v>
       </c>
-      <c r="Q32" s="78"/>
-      <c r="R32" s="79"/>
+      <c r="Q32" s="192"/>
+      <c r="R32" s="193"/>
       <c r="S32" s="1"/>
     </row>
     <row r="33" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4008,27 +4008,27 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
-      <c r="N33" s="76" t="s">
+      <c r="N33" s="109" t="s">
         <v>125</v>
       </c>
-      <c r="O33" s="148"/>
-      <c r="P33" s="78">
+      <c r="O33" s="110"/>
+      <c r="P33" s="192">
         <f>I39</f>
         <v>0</v>
       </c>
-      <c r="Q33" s="78"/>
-      <c r="R33" s="79"/>
+      <c r="Q33" s="192"/>
+      <c r="R33" s="193"/>
       <c r="S33" s="1"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="167"/>
-      <c r="C34" s="168"/>
-      <c r="D34" s="168"/>
-      <c r="E34" s="168"/>
-      <c r="F34" s="168"/>
-      <c r="G34" s="168"/>
-      <c r="H34" s="169"/>
+      <c r="B34" s="97"/>
+      <c r="C34" s="98"/>
+      <c r="D34" s="98"/>
+      <c r="E34" s="98"/>
+      <c r="F34" s="98"/>
+      <c r="G34" s="98"/>
+      <c r="H34" s="99"/>
       <c r="I34" s="68">
         <v>0</v>
       </c>
@@ -4045,86 +4045,86 @@
     </row>
     <row r="35" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
-      <c r="B35" s="149"/>
-      <c r="C35" s="150"/>
-      <c r="D35" s="150"/>
-      <c r="E35" s="150"/>
-      <c r="F35" s="150"/>
-      <c r="G35" s="150"/>
-      <c r="H35" s="151"/>
+      <c r="B35" s="100"/>
+      <c r="C35" s="101"/>
+      <c r="D35" s="101"/>
+      <c r="E35" s="101"/>
+      <c r="F35" s="101"/>
+      <c r="G35" s="101"/>
+      <c r="H35" s="102"/>
       <c r="I35" s="69">
         <v>0</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
-      <c r="L35" s="173" t="s">
+      <c r="L35" s="126" t="s">
         <v>18</v>
       </c>
-      <c r="M35" s="174"/>
-      <c r="N35" s="174"/>
-      <c r="O35" s="174"/>
-      <c r="P35" s="174"/>
-      <c r="Q35" s="174"/>
-      <c r="R35" s="174"/>
-      <c r="S35" s="174"/>
+      <c r="M35" s="127"/>
+      <c r="N35" s="127"/>
+      <c r="O35" s="127"/>
+      <c r="P35" s="127"/>
+      <c r="Q35" s="127"/>
+      <c r="R35" s="127"/>
+      <c r="S35" s="127"/>
     </row>
     <row r="36" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="149"/>
-      <c r="C36" s="150"/>
-      <c r="D36" s="150"/>
-      <c r="E36" s="150"/>
-      <c r="F36" s="150"/>
-      <c r="G36" s="150"/>
-      <c r="H36" s="151"/>
+      <c r="B36" s="100"/>
+      <c r="C36" s="101"/>
+      <c r="D36" s="101"/>
+      <c r="E36" s="101"/>
+      <c r="F36" s="101"/>
+      <c r="G36" s="101"/>
+      <c r="H36" s="102"/>
       <c r="I36" s="69">
         <v>0</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="11"/>
-      <c r="M36" s="161" t="s">
+      <c r="M36" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="N36" s="162"/>
-      <c r="O36" s="162"/>
-      <c r="P36" s="162"/>
-      <c r="Q36" s="162"/>
-      <c r="R36" s="162"/>
-      <c r="S36" s="163"/>
+      <c r="N36" s="118"/>
+      <c r="O36" s="118"/>
+      <c r="P36" s="118"/>
+      <c r="Q36" s="118"/>
+      <c r="R36" s="118"/>
+      <c r="S36" s="119"/>
     </row>
     <row r="37" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
-      <c r="B37" s="149"/>
-      <c r="C37" s="150"/>
-      <c r="D37" s="150"/>
-      <c r="E37" s="150"/>
-      <c r="F37" s="150"/>
-      <c r="G37" s="150"/>
-      <c r="H37" s="151"/>
+      <c r="B37" s="100"/>
+      <c r="C37" s="101"/>
+      <c r="D37" s="101"/>
+      <c r="E37" s="101"/>
+      <c r="F37" s="101"/>
+      <c r="G37" s="101"/>
+      <c r="H37" s="102"/>
       <c r="I37" s="69">
         <v>0</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="12"/>
-      <c r="M37" s="164"/>
-      <c r="N37" s="165"/>
-      <c r="O37" s="165"/>
-      <c r="P37" s="165"/>
-      <c r="Q37" s="165"/>
-      <c r="R37" s="165"/>
-      <c r="S37" s="166"/>
+      <c r="M37" s="120"/>
+      <c r="N37" s="121"/>
+      <c r="O37" s="121"/>
+      <c r="P37" s="121"/>
+      <c r="Q37" s="121"/>
+      <c r="R37" s="121"/>
+      <c r="S37" s="122"/>
     </row>
     <row r="38" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
-      <c r="B38" s="152"/>
-      <c r="C38" s="153"/>
-      <c r="D38" s="153"/>
-      <c r="E38" s="153"/>
-      <c r="F38" s="153"/>
-      <c r="G38" s="153"/>
-      <c r="H38" s="154"/>
+      <c r="B38" s="103"/>
+      <c r="C38" s="104"/>
+      <c r="D38" s="104"/>
+      <c r="E38" s="104"/>
+      <c r="F38" s="104"/>
+      <c r="G38" s="104"/>
+      <c r="H38" s="105"/>
       <c r="I38" s="70">
         <v>0</v>
       </c>
@@ -4133,27 +4133,27 @@
       <c r="L38" s="13">
         <v>-30</v>
       </c>
-      <c r="M38" s="155" t="s">
+      <c r="M38" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="N38" s="156"/>
-      <c r="O38" s="156"/>
-      <c r="P38" s="156"/>
-      <c r="Q38" s="156"/>
-      <c r="R38" s="156"/>
-      <c r="S38" s="157"/>
+      <c r="N38" s="112"/>
+      <c r="O38" s="112"/>
+      <c r="P38" s="112"/>
+      <c r="Q38" s="112"/>
+      <c r="R38" s="112"/>
+      <c r="S38" s="113"/>
     </row>
     <row r="39" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
-      <c r="B39" s="170" t="s">
+      <c r="B39" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="171"/>
-      <c r="D39" s="171"/>
-      <c r="E39" s="171"/>
-      <c r="F39" s="171"/>
-      <c r="G39" s="171"/>
-      <c r="H39" s="172"/>
+      <c r="C39" s="124"/>
+      <c r="D39" s="124"/>
+      <c r="E39" s="124"/>
+      <c r="F39" s="124"/>
+      <c r="G39" s="124"/>
+      <c r="H39" s="125"/>
       <c r="I39" s="15">
         <f>SUM(I34:I38)</f>
         <v>0</v>
@@ -4163,15 +4163,15 @@
       <c r="L39" s="14">
         <v>-25</v>
       </c>
-      <c r="M39" s="155" t="s">
+      <c r="M39" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="N39" s="156"/>
-      <c r="O39" s="156"/>
-      <c r="P39" s="156"/>
-      <c r="Q39" s="156"/>
-      <c r="R39" s="156"/>
-      <c r="S39" s="157"/>
+      <c r="N39" s="112"/>
+      <c r="O39" s="112"/>
+      <c r="P39" s="112"/>
+      <c r="Q39" s="112"/>
+      <c r="R39" s="112"/>
+      <c r="S39" s="113"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
@@ -4180,15 +4180,15 @@
       <c r="L40" s="14">
         <v>-20</v>
       </c>
-      <c r="M40" s="155" t="s">
+      <c r="M40" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="N40" s="156"/>
-      <c r="O40" s="156"/>
-      <c r="P40" s="156"/>
-      <c r="Q40" s="156"/>
-      <c r="R40" s="156"/>
-      <c r="S40" s="157"/>
+      <c r="N40" s="112"/>
+      <c r="O40" s="112"/>
+      <c r="P40" s="112"/>
+      <c r="Q40" s="112"/>
+      <c r="R40" s="112"/>
+      <c r="S40" s="113"/>
     </row>
     <row r="41" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
@@ -4197,228 +4197,228 @@
       <c r="L41" s="14">
         <v>-15</v>
       </c>
-      <c r="M41" s="155" t="s">
+      <c r="M41" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="N41" s="156"/>
-      <c r="O41" s="156"/>
-      <c r="P41" s="156"/>
-      <c r="Q41" s="156"/>
-      <c r="R41" s="156"/>
-      <c r="S41" s="157"/>
+      <c r="N41" s="112"/>
+      <c r="O41" s="112"/>
+      <c r="P41" s="112"/>
+      <c r="Q41" s="112"/>
+      <c r="R41" s="112"/>
+      <c r="S41" s="113"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="180" t="s">
+      <c r="B42" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="181"/>
-      <c r="D42" s="181"/>
-      <c r="E42" s="181"/>
-      <c r="F42" s="181"/>
-      <c r="G42" s="181"/>
-      <c r="H42" s="181"/>
-      <c r="I42" s="182"/>
+      <c r="C42" s="82"/>
+      <c r="D42" s="82"/>
+      <c r="E42" s="82"/>
+      <c r="F42" s="82"/>
+      <c r="G42" s="82"/>
+      <c r="H42" s="82"/>
+      <c r="I42" s="83"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="14">
         <v>-10</v>
       </c>
-      <c r="M42" s="155" t="s">
+      <c r="M42" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="N42" s="156"/>
-      <c r="O42" s="156"/>
-      <c r="P42" s="156"/>
-      <c r="Q42" s="156"/>
-      <c r="R42" s="156"/>
-      <c r="S42" s="157"/>
+      <c r="N42" s="112"/>
+      <c r="O42" s="112"/>
+      <c r="P42" s="112"/>
+      <c r="Q42" s="112"/>
+      <c r="R42" s="112"/>
+      <c r="S42" s="113"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="80"/>
-      <c r="C43" s="81"/>
-      <c r="D43" s="81"/>
-      <c r="E43" s="81"/>
-      <c r="F43" s="81"/>
-      <c r="G43" s="81"/>
-      <c r="H43" s="81"/>
-      <c r="I43" s="82"/>
+      <c r="B43" s="170"/>
+      <c r="C43" s="171"/>
+      <c r="D43" s="171"/>
+      <c r="E43" s="171"/>
+      <c r="F43" s="171"/>
+      <c r="G43" s="171"/>
+      <c r="H43" s="171"/>
+      <c r="I43" s="172"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="14">
         <v>-5</v>
       </c>
-      <c r="M43" s="155" t="s">
+      <c r="M43" s="111" t="s">
         <v>32</v>
       </c>
-      <c r="N43" s="156"/>
-      <c r="O43" s="156"/>
-      <c r="P43" s="156"/>
-      <c r="Q43" s="156"/>
-      <c r="R43" s="156"/>
-      <c r="S43" s="157"/>
+      <c r="N43" s="112"/>
+      <c r="O43" s="112"/>
+      <c r="P43" s="112"/>
+      <c r="Q43" s="112"/>
+      <c r="R43" s="112"/>
+      <c r="S43" s="113"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="80"/>
-      <c r="C44" s="81"/>
-      <c r="D44" s="81"/>
-      <c r="E44" s="81"/>
-      <c r="F44" s="81"/>
-      <c r="G44" s="81"/>
-      <c r="H44" s="81"/>
-      <c r="I44" s="82"/>
+      <c r="B44" s="170"/>
+      <c r="C44" s="171"/>
+      <c r="D44" s="171"/>
+      <c r="E44" s="171"/>
+      <c r="F44" s="171"/>
+      <c r="G44" s="171"/>
+      <c r="H44" s="171"/>
+      <c r="I44" s="172"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="14">
         <v>0</v>
       </c>
-      <c r="M44" s="155" t="s">
+      <c r="M44" s="111" t="s">
         <v>33</v>
       </c>
-      <c r="N44" s="156"/>
-      <c r="O44" s="156"/>
-      <c r="P44" s="156"/>
-      <c r="Q44" s="156"/>
-      <c r="R44" s="156"/>
-      <c r="S44" s="157"/>
+      <c r="N44" s="112"/>
+      <c r="O44" s="112"/>
+      <c r="P44" s="112"/>
+      <c r="Q44" s="112"/>
+      <c r="R44" s="112"/>
+      <c r="S44" s="113"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
-      <c r="B45" s="80"/>
-      <c r="C45" s="81"/>
-      <c r="D45" s="81"/>
-      <c r="E45" s="81"/>
-      <c r="F45" s="81"/>
-      <c r="G45" s="81"/>
-      <c r="H45" s="81"/>
-      <c r="I45" s="82"/>
+      <c r="B45" s="170"/>
+      <c r="C45" s="171"/>
+      <c r="D45" s="171"/>
+      <c r="E45" s="171"/>
+      <c r="F45" s="171"/>
+      <c r="G45" s="171"/>
+      <c r="H45" s="171"/>
+      <c r="I45" s="172"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="14">
         <v>1</v>
       </c>
-      <c r="M45" s="155" t="s">
+      <c r="M45" s="111" t="s">
         <v>34</v>
       </c>
-      <c r="N45" s="156"/>
-      <c r="O45" s="156"/>
-      <c r="P45" s="156"/>
-      <c r="Q45" s="156"/>
-      <c r="R45" s="156"/>
-      <c r="S45" s="157"/>
+      <c r="N45" s="112"/>
+      <c r="O45" s="112"/>
+      <c r="P45" s="112"/>
+      <c r="Q45" s="112"/>
+      <c r="R45" s="112"/>
+      <c r="S45" s="113"/>
     </row>
     <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="80"/>
-      <c r="C46" s="81"/>
-      <c r="D46" s="81"/>
-      <c r="E46" s="81"/>
-      <c r="F46" s="81"/>
-      <c r="G46" s="81"/>
-      <c r="H46" s="81"/>
-      <c r="I46" s="82"/>
+      <c r="B46" s="170"/>
+      <c r="C46" s="171"/>
+      <c r="D46" s="171"/>
+      <c r="E46" s="171"/>
+      <c r="F46" s="171"/>
+      <c r="G46" s="171"/>
+      <c r="H46" s="171"/>
+      <c r="I46" s="172"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="14">
         <v>2</v>
       </c>
-      <c r="M46" s="155" t="s">
+      <c r="M46" s="111" t="s">
         <v>35</v>
       </c>
-      <c r="N46" s="156"/>
-      <c r="O46" s="156"/>
-      <c r="P46" s="156"/>
-      <c r="Q46" s="156"/>
-      <c r="R46" s="156"/>
-      <c r="S46" s="157"/>
+      <c r="N46" s="112"/>
+      <c r="O46" s="112"/>
+      <c r="P46" s="112"/>
+      <c r="Q46" s="112"/>
+      <c r="R46" s="112"/>
+      <c r="S46" s="113"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
-      <c r="B47" s="83"/>
-      <c r="C47" s="84"/>
-      <c r="D47" s="84"/>
-      <c r="E47" s="84"/>
-      <c r="F47" s="84"/>
-      <c r="G47" s="84"/>
-      <c r="H47" s="84"/>
-      <c r="I47" s="85"/>
+      <c r="B47" s="167"/>
+      <c r="C47" s="168"/>
+      <c r="D47" s="168"/>
+      <c r="E47" s="168"/>
+      <c r="F47" s="168"/>
+      <c r="G47" s="168"/>
+      <c r="H47" s="168"/>
+      <c r="I47" s="169"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="14">
         <v>3</v>
       </c>
-      <c r="M47" s="155" t="s">
+      <c r="M47" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="N47" s="156"/>
-      <c r="O47" s="156"/>
-      <c r="P47" s="156"/>
-      <c r="Q47" s="156"/>
-      <c r="R47" s="156"/>
-      <c r="S47" s="157"/>
+      <c r="N47" s="112"/>
+      <c r="O47" s="112"/>
+      <c r="P47" s="112"/>
+      <c r="Q47" s="112"/>
+      <c r="R47" s="112"/>
+      <c r="S47" s="113"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="83"/>
-      <c r="C48" s="84"/>
-      <c r="D48" s="84"/>
-      <c r="E48" s="84"/>
-      <c r="F48" s="84"/>
-      <c r="G48" s="84"/>
-      <c r="H48" s="84"/>
-      <c r="I48" s="85"/>
+      <c r="B48" s="167"/>
+      <c r="C48" s="168"/>
+      <c r="D48" s="168"/>
+      <c r="E48" s="168"/>
+      <c r="F48" s="168"/>
+      <c r="G48" s="168"/>
+      <c r="H48" s="168"/>
+      <c r="I48" s="169"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="14">
         <v>4</v>
       </c>
-      <c r="M48" s="155" t="s">
+      <c r="M48" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="N48" s="156"/>
-      <c r="O48" s="156"/>
-      <c r="P48" s="156"/>
-      <c r="Q48" s="156"/>
-      <c r="R48" s="156"/>
-      <c r="S48" s="157"/>
+      <c r="N48" s="112"/>
+      <c r="O48" s="112"/>
+      <c r="P48" s="112"/>
+      <c r="Q48" s="112"/>
+      <c r="R48" s="112"/>
+      <c r="S48" s="113"/>
     </row>
     <row r="49" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
-      <c r="B49" s="83"/>
-      <c r="C49" s="84"/>
-      <c r="D49" s="84"/>
-      <c r="E49" s="84"/>
-      <c r="F49" s="84"/>
-      <c r="G49" s="84"/>
-      <c r="H49" s="84"/>
-      <c r="I49" s="85"/>
+      <c r="B49" s="167"/>
+      <c r="C49" s="168"/>
+      <c r="D49" s="168"/>
+      <c r="E49" s="168"/>
+      <c r="F49" s="168"/>
+      <c r="G49" s="168"/>
+      <c r="H49" s="168"/>
+      <c r="I49" s="169"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="16">
         <v>5</v>
       </c>
-      <c r="M49" s="158" t="s">
+      <c r="M49" s="114" t="s">
         <v>38</v>
       </c>
-      <c r="N49" s="159"/>
-      <c r="O49" s="159"/>
-      <c r="P49" s="159"/>
-      <c r="Q49" s="159"/>
-      <c r="R49" s="159"/>
-      <c r="S49" s="160"/>
+      <c r="N49" s="115"/>
+      <c r="O49" s="115"/>
+      <c r="P49" s="115"/>
+      <c r="Q49" s="115"/>
+      <c r="R49" s="115"/>
+      <c r="S49" s="116"/>
     </row>
     <row r="50" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
-      <c r="B50" s="92"/>
-      <c r="C50" s="93"/>
-      <c r="D50" s="93"/>
-      <c r="E50" s="93"/>
-      <c r="F50" s="93"/>
-      <c r="G50" s="93"/>
-      <c r="H50" s="93"/>
-      <c r="I50" s="94"/>
+      <c r="B50" s="179"/>
+      <c r="C50" s="180"/>
+      <c r="D50" s="180"/>
+      <c r="E50" s="180"/>
+      <c r="F50" s="180"/>
+      <c r="G50" s="180"/>
+      <c r="H50" s="180"/>
+      <c r="I50" s="181"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
@@ -4498,20 +4498,71 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="RJoaeoIrKCE50qhK/7e1Y9lGp03PsH5G39oBbR4/AECAYvUTdBkVowi79ACOd0w6K1gsMyaqMMp+gs1lNlExLg==" saltValue="ZJPdwjJMrErnOJ1043Zwuw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="103">
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="B42:I42"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="B44:I44"/>
+    <mergeCell ref="B45:I45"/>
+    <mergeCell ref="B46:I46"/>
+    <mergeCell ref="B47:I47"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="B48:I48"/>
+    <mergeCell ref="B43:I43"/>
+    <mergeCell ref="B2:S3"/>
+    <mergeCell ref="B49:I49"/>
+    <mergeCell ref="B50:I50"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="B6:E7"/>
+    <mergeCell ref="G6:K7"/>
+    <mergeCell ref="M5:Q5"/>
+    <mergeCell ref="M6:Q7"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="N12:R13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="P28:R28"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="N23:R23"/>
+    <mergeCell ref="N24:R25"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="N28:O28"/>
     <mergeCell ref="B10:K10"/>
     <mergeCell ref="N33:O33"/>
     <mergeCell ref="N20:O20"/>
@@ -4536,71 +4587,20 @@
     <mergeCell ref="M41:S41"/>
     <mergeCell ref="B29:H29"/>
     <mergeCell ref="B36:H36"/>
-    <mergeCell ref="P28:R28"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P29:R29"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="N23:R23"/>
-    <mergeCell ref="N24:R25"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="N12:R13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="B48:I48"/>
-    <mergeCell ref="B43:I43"/>
-    <mergeCell ref="B2:S3"/>
-    <mergeCell ref="B49:I49"/>
-    <mergeCell ref="B50:I50"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="B6:E7"/>
-    <mergeCell ref="G6:K7"/>
-    <mergeCell ref="M5:Q5"/>
-    <mergeCell ref="M6:Q7"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="N11:R11"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P32:R32"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="B44:I44"/>
-    <mergeCell ref="B45:I45"/>
-    <mergeCell ref="B46:I46"/>
-    <mergeCell ref="B47:I47"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B42:I42"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B28:H28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
@@ -4638,7 +4638,7 @@
       <c r="B2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="213" t="s">
+      <c r="C2" s="194" t="s">
         <v>48</v>
       </c>
       <c r="D2" s="18" t="s">
@@ -4654,7 +4654,7 @@
       <c r="B3" s="20">
         <v>0.2</v>
       </c>
-      <c r="C3" s="214"/>
+      <c r="C3" s="195"/>
       <c r="D3" s="21">
         <f>D7+D16+D23+D30</f>
         <v>24</v>
@@ -4717,14 +4717,14 @@
       <c r="C7" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="203">
+      <c r="D7" s="211">
         <f>E7*$B$3</f>
         <v>15</v>
       </c>
-      <c r="E7" s="222">
+      <c r="E7" s="196">
         <v>75</v>
       </c>
-      <c r="F7" s="224"/>
+      <c r="F7" s="202"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -4734,9 +4734,9 @@
       <c r="C8" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="204"/>
-      <c r="E8" s="223"/>
-      <c r="F8" s="225"/>
+      <c r="D8" s="212"/>
+      <c r="E8" s="197"/>
+      <c r="F8" s="203"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -4746,9 +4746,9 @@
       <c r="C9" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="240"/>
-      <c r="E9" s="241"/>
-      <c r="F9" s="242"/>
+      <c r="D9" s="213"/>
+      <c r="E9" s="198"/>
+      <c r="F9" s="204"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -4776,14 +4776,14 @@
       <c r="C11" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="232">
+      <c r="D11" s="208">
         <f>E11*$B$3</f>
         <v>0</v>
       </c>
-      <c r="E11" s="197">
-        <v>0</v>
-      </c>
-      <c r="F11" s="211"/>
+      <c r="E11" s="199">
+        <v>0</v>
+      </c>
+      <c r="F11" s="205"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
@@ -4793,9 +4793,9 @@
       <c r="C12" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="233"/>
-      <c r="E12" s="198"/>
-      <c r="F12" s="235"/>
+      <c r="D12" s="209"/>
+      <c r="E12" s="200"/>
+      <c r="F12" s="206"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
@@ -4805,9 +4805,9 @@
       <c r="C13" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="234"/>
-      <c r="E13" s="199"/>
-      <c r="F13" s="212"/>
+      <c r="D13" s="210"/>
+      <c r="E13" s="201"/>
+      <c r="F13" s="207"/>
     </row>
     <row r="14" spans="1:6" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
@@ -4819,7 +4819,7 @@
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="218">
+      <c r="B15" s="216">
         <v>-0.05</v>
       </c>
       <c r="C15" s="219" t="s">
@@ -4837,31 +4837,31 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="215"/>
-      <c r="C16" s="217"/>
-      <c r="D16" s="220">
+      <c r="B16" s="217"/>
+      <c r="C16" s="220"/>
+      <c r="D16" s="221">
         <f>E16</f>
         <v>0</v>
       </c>
-      <c r="E16" s="222">
-        <v>0</v>
-      </c>
-      <c r="F16" s="224"/>
+      <c r="E16" s="196">
+        <v>0</v>
+      </c>
+      <c r="F16" s="202"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="215"/>
-      <c r="C17" s="217"/>
-      <c r="D17" s="221"/>
-      <c r="E17" s="223"/>
-      <c r="F17" s="225"/>
+      <c r="B17" s="217"/>
+      <c r="C17" s="220"/>
+      <c r="D17" s="222"/>
+      <c r="E17" s="197"/>
+      <c r="F17" s="203"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="215">
+      <c r="B18" s="217">
         <v>-0.03</v>
       </c>
-      <c r="C18" s="217" t="s">
+      <c r="C18" s="220" t="s">
         <v>59</v>
       </c>
       <c r="D18" s="34" t="s">
@@ -4876,16 +4876,16 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="215"/>
-      <c r="C19" s="217"/>
-      <c r="D19" s="209">
+      <c r="B19" s="217"/>
+      <c r="C19" s="220"/>
+      <c r="D19" s="214">
         <f>E19</f>
         <v>0</v>
       </c>
-      <c r="E19" s="197">
-        <v>0</v>
-      </c>
-      <c r="F19" s="211"/>
+      <c r="E19" s="199">
+        <v>0</v>
+      </c>
+      <c r="F19" s="205"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
@@ -4895,9 +4895,9 @@
       <c r="C20" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="210"/>
-      <c r="E20" s="199"/>
-      <c r="F20" s="212"/>
+      <c r="D20" s="215"/>
+      <c r="E20" s="201"/>
+      <c r="F20" s="207"/>
     </row>
     <row r="21" spans="1:6" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
@@ -4909,7 +4909,7 @@
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="218">
+      <c r="B22" s="216">
         <v>-0.05</v>
       </c>
       <c r="C22" s="219" t="s">
@@ -4927,33 +4927,33 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="215"/>
-      <c r="C23" s="217"/>
-      <c r="D23" s="220">
+      <c r="B23" s="217"/>
+      <c r="C23" s="220"/>
+      <c r="D23" s="221">
         <f>E23</f>
         <v>3</v>
       </c>
-      <c r="E23" s="222">
+      <c r="E23" s="196">
         <v>3</v>
       </c>
-      <c r="F23" s="224"/>
+      <c r="F23" s="202"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="215">
+      <c r="B24" s="217">
         <v>-0.03</v>
       </c>
-      <c r="C24" s="217" t="s">
+      <c r="C24" s="220" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="221"/>
-      <c r="E24" s="223"/>
-      <c r="F24" s="225"/>
+      <c r="D24" s="222"/>
+      <c r="E24" s="197"/>
+      <c r="F24" s="203"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="245"/>
-      <c r="C25" s="217"/>
+      <c r="B25" s="218"/>
+      <c r="C25" s="220"/>
       <c r="D25" s="34" t="s">
         <v>53</v>
       </c>
@@ -4972,14 +4972,14 @@
       <c r="C26" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="209">
+      <c r="D26" s="214">
         <f>E26</f>
         <v>0</v>
       </c>
-      <c r="E26" s="197">
-        <v>0</v>
-      </c>
-      <c r="F26" s="211"/>
+      <c r="E26" s="199">
+        <v>0</v>
+      </c>
+      <c r="F26" s="205"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
@@ -4989,9 +4989,9 @@
       <c r="C27" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="210"/>
-      <c r="E27" s="199"/>
-      <c r="F27" s="212"/>
+      <c r="D27" s="215"/>
+      <c r="E27" s="201"/>
+      <c r="F27" s="207"/>
     </row>
     <row r="28" spans="1:6" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
@@ -5003,10 +5003,10 @@
     </row>
     <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
-      <c r="B29" s="215">
+      <c r="B29" s="217">
         <v>0.03</v>
       </c>
-      <c r="C29" s="216" t="s">
+      <c r="C29" s="224" t="s">
         <v>65</v>
       </c>
       <c r="D29" s="47" t="s">
@@ -5021,31 +5021,31 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="245"/>
-      <c r="C30" s="216"/>
-      <c r="D30" s="220">
+      <c r="B30" s="218"/>
+      <c r="C30" s="224"/>
+      <c r="D30" s="221">
         <f>E30</f>
         <v>6</v>
       </c>
-      <c r="E30" s="222">
+      <c r="E30" s="196">
         <v>6</v>
       </c>
-      <c r="F30" s="224"/>
+      <c r="F30" s="202"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="245"/>
-      <c r="C31" s="216"/>
-      <c r="D31" s="221"/>
-      <c r="E31" s="223"/>
-      <c r="F31" s="225"/>
+      <c r="B31" s="218"/>
+      <c r="C31" s="224"/>
+      <c r="D31" s="222"/>
+      <c r="E31" s="197"/>
+      <c r="F31" s="203"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="215">
+      <c r="B32" s="217">
         <v>0.03</v>
       </c>
-      <c r="C32" s="216" t="s">
+      <c r="C32" s="224" t="s">
         <v>66</v>
       </c>
       <c r="D32" s="34" t="s">
@@ -5060,24 +5060,24 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="245"/>
-      <c r="C33" s="216"/>
-      <c r="D33" s="209">
+      <c r="B33" s="218"/>
+      <c r="C33" s="224"/>
+      <c r="D33" s="214">
         <f>E33</f>
         <v>0</v>
       </c>
-      <c r="E33" s="197">
-        <v>0</v>
-      </c>
-      <c r="F33" s="211"/>
+      <c r="E33" s="199">
+        <v>0</v>
+      </c>
+      <c r="F33" s="205"/>
     </row>
     <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
-      <c r="B34" s="246"/>
-      <c r="C34" s="248"/>
-      <c r="D34" s="210"/>
-      <c r="E34" s="199"/>
-      <c r="F34" s="212"/>
+      <c r="B34" s="223"/>
+      <c r="C34" s="225"/>
+      <c r="D34" s="215"/>
+      <c r="E34" s="201"/>
+      <c r="F34" s="207"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
@@ -5100,7 +5100,7 @@
       <c r="B37" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="213" t="s">
+      <c r="C37" s="194" t="s">
         <v>0</v>
       </c>
       <c r="D37" s="18" t="s">
@@ -5116,7 +5116,7 @@
       <c r="B38" s="20">
         <v>0.4</v>
       </c>
-      <c r="C38" s="214"/>
+      <c r="C38" s="195"/>
       <c r="D38" s="21">
         <f>D42+D51+D58+D65</f>
         <v>34</v>
@@ -5155,10 +5155,10 @@
     </row>
     <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
-      <c r="B41" s="236" t="s">
+      <c r="B41" s="226" t="s">
         <v>74</v>
       </c>
-      <c r="C41" s="249" t="s">
+      <c r="C41" s="228" t="s">
         <v>67</v>
       </c>
       <c r="D41" s="34" t="s">
@@ -5173,16 +5173,16 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="237"/>
-      <c r="C42" s="239"/>
-      <c r="D42" s="203">
+      <c r="B42" s="227"/>
+      <c r="C42" s="229"/>
+      <c r="D42" s="211">
         <f>E42*$B$38</f>
         <v>28</v>
       </c>
-      <c r="E42" s="222">
+      <c r="E42" s="196">
         <v>70</v>
       </c>
-      <c r="F42" s="224"/>
+      <c r="F42" s="202"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
@@ -5192,9 +5192,9 @@
       <c r="C43" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="D43" s="204"/>
-      <c r="E43" s="223"/>
-      <c r="F43" s="225"/>
+      <c r="D43" s="212"/>
+      <c r="E43" s="197"/>
+      <c r="F43" s="203"/>
     </row>
     <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
@@ -5204,9 +5204,9 @@
       <c r="C44" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="D44" s="240"/>
-      <c r="E44" s="241"/>
-      <c r="F44" s="242"/>
+      <c r="D44" s="213"/>
+      <c r="E44" s="198"/>
+      <c r="F44" s="204"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
@@ -5234,14 +5234,14 @@
       <c r="C46" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="D46" s="232">
+      <c r="D46" s="208">
         <f>E46*$B$38</f>
         <v>0</v>
       </c>
-      <c r="E46" s="197">
-        <v>0</v>
-      </c>
-      <c r="F46" s="211"/>
+      <c r="E46" s="199">
+        <v>0</v>
+      </c>
+      <c r="F46" s="205"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
@@ -5251,9 +5251,9 @@
       <c r="C47" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="D47" s="233"/>
-      <c r="E47" s="198"/>
-      <c r="F47" s="235"/>
+      <c r="D47" s="209"/>
+      <c r="E47" s="200"/>
+      <c r="F47" s="206"/>
     </row>
     <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
@@ -5263,9 +5263,9 @@
       <c r="C48" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="D48" s="234"/>
-      <c r="E48" s="199"/>
-      <c r="F48" s="212"/>
+      <c r="D48" s="210"/>
+      <c r="E48" s="201"/>
+      <c r="F48" s="207"/>
     </row>
     <row r="49" spans="1:6" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
@@ -5277,7 +5277,7 @@
     </row>
     <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
-      <c r="B50" s="218">
+      <c r="B50" s="216">
         <v>-0.03</v>
       </c>
       <c r="C50" s="219" t="s">
@@ -5295,24 +5295,24 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
-      <c r="B51" s="215"/>
-      <c r="C51" s="217"/>
-      <c r="D51" s="220">
+      <c r="B51" s="217"/>
+      <c r="C51" s="220"/>
+      <c r="D51" s="221">
         <f>E51</f>
         <v>3</v>
       </c>
-      <c r="E51" s="222">
+      <c r="E51" s="196">
         <v>3</v>
       </c>
-      <c r="F51" s="224"/>
+      <c r="F51" s="202"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
-      <c r="B52" s="215"/>
-      <c r="C52" s="217"/>
-      <c r="D52" s="221"/>
-      <c r="E52" s="223"/>
-      <c r="F52" s="225"/>
+      <c r="B52" s="217"/>
+      <c r="C52" s="220"/>
+      <c r="D52" s="222"/>
+      <c r="E52" s="197"/>
+      <c r="F52" s="203"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
@@ -5340,14 +5340,14 @@
       <c r="C54" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="D54" s="209">
+      <c r="D54" s="214">
         <f>E54</f>
         <v>0</v>
       </c>
-      <c r="E54" s="197">
-        <v>0</v>
-      </c>
-      <c r="F54" s="211"/>
+      <c r="E54" s="199">
+        <v>0</v>
+      </c>
+      <c r="F54" s="205"/>
     </row>
     <row r="55" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
@@ -5357,9 +5357,9 @@
       <c r="C55" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="D55" s="210"/>
-      <c r="E55" s="199"/>
-      <c r="F55" s="212"/>
+      <c r="D55" s="215"/>
+      <c r="E55" s="201"/>
+      <c r="F55" s="207"/>
     </row>
     <row r="56" spans="1:6" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
@@ -5371,10 +5371,10 @@
     </row>
     <row r="57" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
-      <c r="B57" s="215">
+      <c r="B57" s="217">
         <v>0.03</v>
       </c>
-      <c r="C57" s="216" t="s">
+      <c r="C57" s="224" t="s">
         <v>79</v>
       </c>
       <c r="D57" s="47" t="s">
@@ -5389,31 +5389,31 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
-      <c r="B58" s="245"/>
-      <c r="C58" s="216"/>
-      <c r="D58" s="220">
+      <c r="B58" s="218"/>
+      <c r="C58" s="224"/>
+      <c r="D58" s="221">
         <f>E58</f>
         <v>3</v>
       </c>
-      <c r="E58" s="222">
+      <c r="E58" s="196">
         <v>3</v>
       </c>
-      <c r="F58" s="224"/>
+      <c r="F58" s="202"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
-      <c r="B59" s="245"/>
-      <c r="C59" s="216"/>
-      <c r="D59" s="221"/>
-      <c r="E59" s="223"/>
-      <c r="F59" s="225"/>
+      <c r="B59" s="218"/>
+      <c r="C59" s="224"/>
+      <c r="D59" s="222"/>
+      <c r="E59" s="197"/>
+      <c r="F59" s="203"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
-      <c r="B60" s="215">
+      <c r="B60" s="217">
         <v>0.02</v>
       </c>
-      <c r="C60" s="247" t="s">
+      <c r="C60" s="230" t="s">
         <v>126</v>
       </c>
       <c r="D60" s="34" t="s">
@@ -5428,24 +5428,24 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
-      <c r="B61" s="245"/>
-      <c r="C61" s="216"/>
-      <c r="D61" s="209">
+      <c r="B61" s="218"/>
+      <c r="C61" s="224"/>
+      <c r="D61" s="214">
         <f>E61</f>
         <v>0</v>
       </c>
-      <c r="E61" s="197">
-        <v>0</v>
-      </c>
-      <c r="F61" s="211"/>
+      <c r="E61" s="199">
+        <v>0</v>
+      </c>
+      <c r="F61" s="205"/>
     </row>
     <row r="62" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
-      <c r="B62" s="246"/>
-      <c r="C62" s="248"/>
-      <c r="D62" s="210"/>
-      <c r="E62" s="199"/>
-      <c r="F62" s="212"/>
+      <c r="B62" s="223"/>
+      <c r="C62" s="225"/>
+      <c r="D62" s="215"/>
+      <c r="E62" s="201"/>
+      <c r="F62" s="207"/>
     </row>
     <row r="63" spans="1:6" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
@@ -5457,10 +5457,10 @@
     </row>
     <row r="64" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
-      <c r="B64" s="226">
+      <c r="B64" s="232">
         <v>-0.03</v>
       </c>
-      <c r="C64" s="229" t="s">
+      <c r="C64" s="235" t="s">
         <v>80</v>
       </c>
       <c r="D64" s="47" t="s">
@@ -5475,29 +5475,29 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
-      <c r="B65" s="227"/>
-      <c r="C65" s="230"/>
-      <c r="D65" s="220">
+      <c r="B65" s="233"/>
+      <c r="C65" s="236"/>
+      <c r="D65" s="221">
         <f>E65</f>
         <v>0</v>
       </c>
-      <c r="E65" s="222">
-        <v>0</v>
-      </c>
-      <c r="F65" s="224"/>
+      <c r="E65" s="196">
+        <v>0</v>
+      </c>
+      <c r="F65" s="202"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
-      <c r="B66" s="227"/>
-      <c r="C66" s="230"/>
-      <c r="D66" s="221"/>
-      <c r="E66" s="223"/>
-      <c r="F66" s="225"/>
+      <c r="B66" s="233"/>
+      <c r="C66" s="236"/>
+      <c r="D66" s="222"/>
+      <c r="E66" s="197"/>
+      <c r="F66" s="203"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
-      <c r="B67" s="227"/>
-      <c r="C67" s="230"/>
+      <c r="B67" s="233"/>
+      <c r="C67" s="236"/>
       <c r="D67" s="34" t="s">
         <v>53</v>
       </c>
@@ -5510,24 +5510,24 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
-      <c r="B68" s="227"/>
-      <c r="C68" s="230"/>
-      <c r="D68" s="209">
+      <c r="B68" s="233"/>
+      <c r="C68" s="236"/>
+      <c r="D68" s="214">
         <f>E68</f>
         <v>0</v>
       </c>
-      <c r="E68" s="197">
-        <v>0</v>
-      </c>
-      <c r="F68" s="211"/>
+      <c r="E68" s="199">
+        <v>0</v>
+      </c>
+      <c r="F68" s="205"/>
     </row>
     <row r="69" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
-      <c r="B69" s="228"/>
-      <c r="C69" s="231"/>
-      <c r="D69" s="210"/>
-      <c r="E69" s="199"/>
-      <c r="F69" s="212"/>
+      <c r="B69" s="234"/>
+      <c r="C69" s="237"/>
+      <c r="D69" s="215"/>
+      <c r="E69" s="201"/>
+      <c r="F69" s="207"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
@@ -5550,7 +5550,7 @@
       <c r="B72" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C72" s="213" t="s">
+      <c r="C72" s="194" t="s">
         <v>81</v>
       </c>
       <c r="D72" s="18" t="s">
@@ -5566,7 +5566,7 @@
       <c r="B73" s="20">
         <v>0.2</v>
       </c>
-      <c r="C73" s="214"/>
+      <c r="C73" s="195"/>
       <c r="D73" s="21">
         <f>D77+D86+D93</f>
         <v>19</v>
@@ -5605,10 +5605,10 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
-      <c r="B76" s="236" t="s">
+      <c r="B76" s="226" t="s">
         <v>74</v>
       </c>
-      <c r="C76" s="238" t="s">
+      <c r="C76" s="231" t="s">
         <v>127</v>
       </c>
       <c r="D76" s="34" t="s">
@@ -5623,36 +5623,36 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
-      <c r="B77" s="237"/>
-      <c r="C77" s="239"/>
-      <c r="D77" s="203">
+      <c r="B77" s="227"/>
+      <c r="C77" s="229"/>
+      <c r="D77" s="211">
         <f>E77*$B$73</f>
         <v>16</v>
       </c>
-      <c r="E77" s="222">
+      <c r="E77" s="196">
         <v>80</v>
       </c>
-      <c r="F77" s="224"/>
+      <c r="F77" s="202"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
-      <c r="B78" s="226" t="s">
+      <c r="B78" s="232" t="s">
         <v>43</v>
       </c>
-      <c r="C78" s="229" t="s">
+      <c r="C78" s="235" t="s">
         <v>82</v>
       </c>
-      <c r="D78" s="204"/>
-      <c r="E78" s="223"/>
-      <c r="F78" s="225"/>
+      <c r="D78" s="212"/>
+      <c r="E78" s="197"/>
+      <c r="F78" s="203"/>
     </row>
     <row r="79" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
-      <c r="B79" s="237"/>
-      <c r="C79" s="239"/>
-      <c r="D79" s="240"/>
-      <c r="E79" s="241"/>
-      <c r="F79" s="242"/>
+      <c r="B79" s="227"/>
+      <c r="C79" s="229"/>
+      <c r="D79" s="213"/>
+      <c r="E79" s="198"/>
+      <c r="F79" s="204"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
@@ -5680,14 +5680,14 @@
       <c r="C81" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="D81" s="232">
+      <c r="D81" s="208">
         <f>E81*$B$73</f>
         <v>0</v>
       </c>
-      <c r="E81" s="197">
-        <v>0</v>
-      </c>
-      <c r="F81" s="211"/>
+      <c r="E81" s="199">
+        <v>0</v>
+      </c>
+      <c r="F81" s="205"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
@@ -5697,9 +5697,9 @@
       <c r="C82" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="D82" s="233"/>
-      <c r="E82" s="198"/>
-      <c r="F82" s="235"/>
+      <c r="D82" s="209"/>
+      <c r="E82" s="200"/>
+      <c r="F82" s="206"/>
     </row>
     <row r="83" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
@@ -5709,9 +5709,9 @@
       <c r="C83" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="D83" s="234"/>
-      <c r="E83" s="199"/>
-      <c r="F83" s="212"/>
+      <c r="D83" s="210"/>
+      <c r="E83" s="201"/>
+      <c r="F83" s="207"/>
     </row>
     <row r="84" spans="1:6" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
@@ -5723,10 +5723,10 @@
     </row>
     <row r="85" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
-      <c r="B85" s="236">
+      <c r="B85" s="226">
         <v>-0.05</v>
       </c>
-      <c r="C85" s="243" t="s">
+      <c r="C85" s="238" t="s">
         <v>87</v>
       </c>
       <c r="D85" s="47" t="s">
@@ -5741,16 +5741,16 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
-      <c r="B86" s="237"/>
-      <c r="C86" s="244"/>
-      <c r="D86" s="220">
+      <c r="B86" s="227"/>
+      <c r="C86" s="239"/>
+      <c r="D86" s="221">
         <f>E86</f>
         <v>3</v>
       </c>
-      <c r="E86" s="222">
+      <c r="E86" s="196">
         <v>3</v>
       </c>
-      <c r="F86" s="224"/>
+      <c r="F86" s="202"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
@@ -5760,9 +5760,9 @@
       <c r="C87" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="D87" s="221"/>
-      <c r="E87" s="223"/>
-      <c r="F87" s="225"/>
+      <c r="D87" s="222"/>
+      <c r="E87" s="197"/>
+      <c r="F87" s="203"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
@@ -5790,14 +5790,14 @@
       <c r="C89" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="D89" s="209">
+      <c r="D89" s="214">
         <f>E89</f>
         <v>0</v>
       </c>
-      <c r="E89" s="197">
-        <v>0</v>
-      </c>
-      <c r="F89" s="211"/>
+      <c r="E89" s="199">
+        <v>0</v>
+      </c>
+      <c r="F89" s="205"/>
     </row>
     <row r="90" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
@@ -5807,9 +5807,9 @@
       <c r="C90" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="D90" s="210"/>
-      <c r="E90" s="199"/>
-      <c r="F90" s="212"/>
+      <c r="D90" s="215"/>
+      <c r="E90" s="201"/>
+      <c r="F90" s="207"/>
     </row>
     <row r="91" spans="1:6" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
@@ -5821,10 +5821,10 @@
     </row>
     <row r="92" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
-      <c r="B92" s="226">
+      <c r="B92" s="232">
         <v>-0.03</v>
       </c>
-      <c r="C92" s="229" t="s">
+      <c r="C92" s="235" t="s">
         <v>80</v>
       </c>
       <c r="D92" s="47" t="s">
@@ -5839,29 +5839,29 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
-      <c r="B93" s="227"/>
-      <c r="C93" s="230"/>
-      <c r="D93" s="220">
+      <c r="B93" s="233"/>
+      <c r="C93" s="236"/>
+      <c r="D93" s="221">
         <f>E93</f>
         <v>0</v>
       </c>
-      <c r="E93" s="222">
-        <v>0</v>
-      </c>
-      <c r="F93" s="224"/>
+      <c r="E93" s="196">
+        <v>0</v>
+      </c>
+      <c r="F93" s="202"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
-      <c r="B94" s="227"/>
-      <c r="C94" s="230"/>
-      <c r="D94" s="221"/>
-      <c r="E94" s="223"/>
-      <c r="F94" s="225"/>
+      <c r="B94" s="233"/>
+      <c r="C94" s="236"/>
+      <c r="D94" s="222"/>
+      <c r="E94" s="197"/>
+      <c r="F94" s="203"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
-      <c r="B95" s="227"/>
-      <c r="C95" s="230"/>
+      <c r="B95" s="233"/>
+      <c r="C95" s="236"/>
       <c r="D95" s="34" t="s">
         <v>53</v>
       </c>
@@ -5874,24 +5874,24 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
-      <c r="B96" s="227"/>
-      <c r="C96" s="230"/>
-      <c r="D96" s="209">
+      <c r="B96" s="233"/>
+      <c r="C96" s="236"/>
+      <c r="D96" s="214">
         <f>E96</f>
         <v>0</v>
       </c>
-      <c r="E96" s="197">
-        <v>0</v>
-      </c>
-      <c r="F96" s="211"/>
+      <c r="E96" s="199">
+        <v>0</v>
+      </c>
+      <c r="F96" s="205"/>
     </row>
     <row r="97" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
-      <c r="B97" s="228"/>
-      <c r="C97" s="231"/>
-      <c r="D97" s="210"/>
-      <c r="E97" s="199"/>
-      <c r="F97" s="212"/>
+      <c r="B97" s="234"/>
+      <c r="C97" s="237"/>
+      <c r="D97" s="215"/>
+      <c r="E97" s="201"/>
+      <c r="F97" s="207"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
@@ -5914,7 +5914,7 @@
       <c r="B100" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C100" s="213" t="s">
+      <c r="C100" s="194" t="s">
         <v>98</v>
       </c>
       <c r="D100" s="18" t="s">
@@ -5930,7 +5930,7 @@
       <c r="B101" s="20">
         <v>0.2</v>
       </c>
-      <c r="C101" s="214"/>
+      <c r="C101" s="195"/>
       <c r="D101" s="21">
         <f>D105+D114+D121+D128</f>
         <v>16</v>
@@ -5969,10 +5969,10 @@
     </row>
     <row r="104" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
-      <c r="B104" s="236" t="s">
+      <c r="B104" s="226" t="s">
         <v>74</v>
       </c>
-      <c r="C104" s="238" t="s">
+      <c r="C104" s="231" t="s">
         <v>97</v>
       </c>
       <c r="D104" s="34" t="s">
@@ -5987,36 +5987,36 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
-      <c r="B105" s="237"/>
-      <c r="C105" s="239"/>
-      <c r="D105" s="203">
+      <c r="B105" s="227"/>
+      <c r="C105" s="229"/>
+      <c r="D105" s="211">
         <f>E105*$B$101</f>
         <v>16</v>
       </c>
-      <c r="E105" s="222">
+      <c r="E105" s="196">
         <v>80</v>
       </c>
-      <c r="F105" s="224"/>
+      <c r="F105" s="202"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
-      <c r="B106" s="226">
+      <c r="B106" s="232">
         <v>0.6</v>
       </c>
-      <c r="C106" s="229" t="s">
+      <c r="C106" s="235" t="s">
         <v>92</v>
       </c>
-      <c r="D106" s="204"/>
-      <c r="E106" s="223"/>
-      <c r="F106" s="225"/>
+      <c r="D106" s="212"/>
+      <c r="E106" s="197"/>
+      <c r="F106" s="203"/>
     </row>
     <row r="107" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
-      <c r="B107" s="237"/>
-      <c r="C107" s="239"/>
-      <c r="D107" s="240"/>
-      <c r="E107" s="241"/>
-      <c r="F107" s="242"/>
+      <c r="B107" s="227"/>
+      <c r="C107" s="229"/>
+      <c r="D107" s="213"/>
+      <c r="E107" s="198"/>
+      <c r="F107" s="204"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
@@ -6044,14 +6044,14 @@
       <c r="C109" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="D109" s="232">
+      <c r="D109" s="208">
         <f>E109*$B$101</f>
         <v>0</v>
       </c>
-      <c r="E109" s="197">
-        <v>0</v>
-      </c>
-      <c r="F109" s="211"/>
+      <c r="E109" s="199">
+        <v>0</v>
+      </c>
+      <c r="F109" s="205"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
@@ -6061,9 +6061,9 @@
       <c r="C110" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="D110" s="233"/>
-      <c r="E110" s="198"/>
-      <c r="F110" s="235"/>
+      <c r="D110" s="209"/>
+      <c r="E110" s="200"/>
+      <c r="F110" s="206"/>
     </row>
     <row r="111" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
@@ -6073,9 +6073,9 @@
       <c r="C111" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="D111" s="234"/>
-      <c r="E111" s="199"/>
-      <c r="F111" s="212"/>
+      <c r="D111" s="210"/>
+      <c r="E111" s="201"/>
+      <c r="F111" s="207"/>
     </row>
     <row r="112" spans="1:6" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
@@ -6087,7 +6087,7 @@
     </row>
     <row r="113" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
-      <c r="B113" s="218">
+      <c r="B113" s="216">
         <v>-0.05</v>
       </c>
       <c r="C113" s="219" t="s">
@@ -6105,24 +6105,24 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
-      <c r="B114" s="215"/>
-      <c r="C114" s="217"/>
-      <c r="D114" s="220">
+      <c r="B114" s="217"/>
+      <c r="C114" s="220"/>
+      <c r="D114" s="221">
         <f>E114</f>
         <v>0</v>
       </c>
-      <c r="E114" s="222">
-        <v>0</v>
-      </c>
-      <c r="F114" s="224"/>
+      <c r="E114" s="196">
+        <v>0</v>
+      </c>
+      <c r="F114" s="202"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
-      <c r="B115" s="215"/>
-      <c r="C115" s="217"/>
-      <c r="D115" s="221"/>
-      <c r="E115" s="223"/>
-      <c r="F115" s="225"/>
+      <c r="B115" s="217"/>
+      <c r="C115" s="220"/>
+      <c r="D115" s="222"/>
+      <c r="E115" s="197"/>
+      <c r="F115" s="203"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
@@ -6150,14 +6150,14 @@
       <c r="C117" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="D117" s="209">
+      <c r="D117" s="214">
         <f>E117</f>
         <v>0</v>
       </c>
-      <c r="E117" s="197">
-        <v>0</v>
-      </c>
-      <c r="F117" s="211"/>
+      <c r="E117" s="199">
+        <v>0</v>
+      </c>
+      <c r="F117" s="205"/>
     </row>
     <row r="118" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
@@ -6167,9 +6167,9 @@
       <c r="C118" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="D118" s="210"/>
-      <c r="E118" s="199"/>
-      <c r="F118" s="212"/>
+      <c r="D118" s="215"/>
+      <c r="E118" s="201"/>
+      <c r="F118" s="207"/>
     </row>
     <row r="119" spans="1:6" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
@@ -6181,10 +6181,10 @@
     </row>
     <row r="120" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
-      <c r="B120" s="226">
+      <c r="B120" s="232">
         <v>0.02</v>
       </c>
-      <c r="C120" s="229" t="s">
+      <c r="C120" s="235" t="s">
         <v>103</v>
       </c>
       <c r="D120" s="47" t="s">
@@ -6199,29 +6199,29 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
-      <c r="B121" s="227"/>
-      <c r="C121" s="230"/>
-      <c r="D121" s="220">
+      <c r="B121" s="233"/>
+      <c r="C121" s="236"/>
+      <c r="D121" s="221">
         <f>E121</f>
         <v>0</v>
       </c>
-      <c r="E121" s="222">
-        <v>0</v>
-      </c>
-      <c r="F121" s="224"/>
+      <c r="E121" s="196">
+        <v>0</v>
+      </c>
+      <c r="F121" s="202"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
-      <c r="B122" s="227"/>
-      <c r="C122" s="230"/>
-      <c r="D122" s="221"/>
-      <c r="E122" s="223"/>
-      <c r="F122" s="225"/>
+      <c r="B122" s="233"/>
+      <c r="C122" s="236"/>
+      <c r="D122" s="222"/>
+      <c r="E122" s="197"/>
+      <c r="F122" s="203"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
-      <c r="B123" s="227"/>
-      <c r="C123" s="230"/>
+      <c r="B123" s="233"/>
+      <c r="C123" s="236"/>
       <c r="D123" s="34" t="s">
         <v>53</v>
       </c>
@@ -6234,24 +6234,24 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
-      <c r="B124" s="227"/>
-      <c r="C124" s="230"/>
-      <c r="D124" s="209">
+      <c r="B124" s="233"/>
+      <c r="C124" s="236"/>
+      <c r="D124" s="214">
         <f>E124</f>
         <v>0</v>
       </c>
-      <c r="E124" s="197">
-        <v>0</v>
-      </c>
-      <c r="F124" s="211"/>
+      <c r="E124" s="199">
+        <v>0</v>
+      </c>
+      <c r="F124" s="205"/>
     </row>
     <row r="125" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
-      <c r="B125" s="228"/>
-      <c r="C125" s="231"/>
-      <c r="D125" s="210"/>
-      <c r="E125" s="199"/>
-      <c r="F125" s="212"/>
+      <c r="B125" s="234"/>
+      <c r="C125" s="237"/>
+      <c r="D125" s="215"/>
+      <c r="E125" s="201"/>
+      <c r="F125" s="207"/>
     </row>
     <row r="126" spans="1:6" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
@@ -6263,7 +6263,7 @@
     </row>
     <row r="127" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1"/>
-      <c r="B127" s="218">
+      <c r="B127" s="216">
         <v>0</v>
       </c>
       <c r="C127" s="219" t="s">
@@ -6281,31 +6281,31 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
-      <c r="B128" s="215"/>
-      <c r="C128" s="217"/>
-      <c r="D128" s="220">
+      <c r="B128" s="217"/>
+      <c r="C128" s="220"/>
+      <c r="D128" s="221">
         <f>E128</f>
         <v>0</v>
       </c>
-      <c r="E128" s="222">
-        <v>0</v>
-      </c>
-      <c r="F128" s="224"/>
+      <c r="E128" s="196">
+        <v>0</v>
+      </c>
+      <c r="F128" s="202"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
-      <c r="B129" s="215"/>
-      <c r="C129" s="217"/>
-      <c r="D129" s="221"/>
-      <c r="E129" s="223"/>
-      <c r="F129" s="225"/>
+      <c r="B129" s="217"/>
+      <c r="C129" s="220"/>
+      <c r="D129" s="222"/>
+      <c r="E129" s="197"/>
+      <c r="F129" s="203"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
-      <c r="B130" s="215">
+      <c r="B130" s="217">
         <v>0.03</v>
       </c>
-      <c r="C130" s="217" t="s">
+      <c r="C130" s="220" t="s">
         <v>105</v>
       </c>
       <c r="D130" s="34" t="s">
@@ -6320,16 +6320,16 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
-      <c r="B131" s="215"/>
-      <c r="C131" s="217"/>
-      <c r="D131" s="209">
+      <c r="B131" s="217"/>
+      <c r="C131" s="220"/>
+      <c r="D131" s="214">
         <f>E131</f>
         <v>0</v>
       </c>
-      <c r="E131" s="197">
-        <v>0</v>
-      </c>
-      <c r="F131" s="211"/>
+      <c r="E131" s="199">
+        <v>0</v>
+      </c>
+      <c r="F131" s="205"/>
     </row>
     <row r="132" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1"/>
@@ -6339,9 +6339,9 @@
       <c r="C132" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="D132" s="210"/>
-      <c r="E132" s="199"/>
-      <c r="F132" s="212"/>
+      <c r="D132" s="215"/>
+      <c r="E132" s="201"/>
+      <c r="F132" s="207"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
@@ -6362,7 +6362,7 @@
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="17"/>
-      <c r="C135" s="213" t="s">
+      <c r="C135" s="194" t="s">
         <v>107</v>
       </c>
       <c r="D135" s="18" t="s">
@@ -6376,7 +6376,7 @@
     <row r="136" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
       <c r="B136" s="20"/>
-      <c r="C136" s="214"/>
+      <c r="C136" s="195"/>
       <c r="D136" s="21">
         <f>D140</f>
         <v>0</v>
@@ -6415,7 +6415,7 @@
     </row>
     <row r="139" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
-      <c r="B139" s="218">
+      <c r="B139" s="216">
         <v>-0.05</v>
       </c>
       <c r="C139" s="219" t="s">
@@ -6433,24 +6433,24 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
-      <c r="B140" s="215"/>
-      <c r="C140" s="217"/>
-      <c r="D140" s="220">
+      <c r="B140" s="217"/>
+      <c r="C140" s="220"/>
+      <c r="D140" s="221">
         <f>E140</f>
         <v>0</v>
       </c>
-      <c r="E140" s="222">
-        <v>0</v>
-      </c>
-      <c r="F140" s="224"/>
+      <c r="E140" s="196">
+        <v>0</v>
+      </c>
+      <c r="F140" s="202"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
-      <c r="B141" s="215"/>
-      <c r="C141" s="217"/>
-      <c r="D141" s="221"/>
-      <c r="E141" s="223"/>
-      <c r="F141" s="225"/>
+      <c r="B141" s="217"/>
+      <c r="C141" s="220"/>
+      <c r="D141" s="222"/>
+      <c r="E141" s="197"/>
+      <c r="F141" s="203"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
@@ -6478,14 +6478,14 @@
       <c r="C143" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="D143" s="209">
+      <c r="D143" s="214">
         <f>E143</f>
         <v>0</v>
       </c>
-      <c r="E143" s="197">
-        <v>0</v>
-      </c>
-      <c r="F143" s="211"/>
+      <c r="E143" s="199">
+        <v>0</v>
+      </c>
+      <c r="F143" s="205"/>
     </row>
     <row r="144" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
@@ -6495,9 +6495,9 @@
       <c r="C144" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="D144" s="210"/>
-      <c r="E144" s="199"/>
-      <c r="F144" s="212"/>
+      <c r="D144" s="215"/>
+      <c r="E144" s="201"/>
+      <c r="F144" s="207"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
@@ -6518,7 +6518,7 @@
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="17"/>
-      <c r="C147" s="213" t="s">
+      <c r="C147" s="194" t="s">
         <v>117</v>
       </c>
       <c r="D147" s="18" t="s">
@@ -6532,7 +6532,7 @@
     <row r="148" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1"/>
       <c r="B148" s="20"/>
-      <c r="C148" s="214"/>
+      <c r="C148" s="195"/>
       <c r="D148" s="21">
         <f>D152</f>
         <v>0</v>
@@ -6571,10 +6571,10 @@
     </row>
     <row r="151" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1"/>
-      <c r="B151" s="215">
+      <c r="B151" s="217">
         <v>-0.05</v>
       </c>
-      <c r="C151" s="216" t="s">
+      <c r="C151" s="224" t="s">
         <v>111</v>
       </c>
       <c r="D151" s="47" t="s">
@@ -6589,16 +6589,16 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
-      <c r="B152" s="215"/>
-      <c r="C152" s="216"/>
-      <c r="D152" s="203">
+      <c r="B152" s="217"/>
+      <c r="C152" s="224"/>
+      <c r="D152" s="211">
         <f>E152</f>
         <v>0</v>
       </c>
-      <c r="E152" s="205">
-        <v>0</v>
-      </c>
-      <c r="F152" s="207"/>
+      <c r="E152" s="246">
+        <v>0</v>
+      </c>
+      <c r="F152" s="248"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
@@ -6608,9 +6608,9 @@
       <c r="C153" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="D153" s="204"/>
-      <c r="E153" s="206"/>
-      <c r="F153" s="208"/>
+      <c r="D153" s="212"/>
+      <c r="E153" s="247"/>
+      <c r="F153" s="249"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
@@ -6620,9 +6620,9 @@
       <c r="C154" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D154" s="204"/>
-      <c r="E154" s="206"/>
-      <c r="F154" s="208"/>
+      <c r="D154" s="212"/>
+      <c r="E154" s="247"/>
+      <c r="F154" s="249"/>
     </row>
     <row r="155" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
@@ -6632,9 +6632,9 @@
       <c r="C155" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="D155" s="204"/>
-      <c r="E155" s="206"/>
-      <c r="F155" s="208"/>
+      <c r="D155" s="212"/>
+      <c r="E155" s="247"/>
+      <c r="F155" s="249"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
@@ -6644,9 +6644,9 @@
       <c r="C156" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D156" s="204"/>
-      <c r="E156" s="206"/>
-      <c r="F156" s="208"/>
+      <c r="D156" s="212"/>
+      <c r="E156" s="247"/>
+      <c r="F156" s="249"/>
     </row>
     <row r="157" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
@@ -6656,9 +6656,9 @@
       <c r="C157" s="60" t="s">
         <v>118</v>
       </c>
-      <c r="D157" s="204"/>
-      <c r="E157" s="206"/>
-      <c r="F157" s="208"/>
+      <c r="D157" s="212"/>
+      <c r="E157" s="247"/>
+      <c r="F157" s="249"/>
     </row>
     <row r="158" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
@@ -6686,14 +6686,14 @@
       <c r="C159" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="D159" s="194">
+      <c r="D159" s="240">
         <f>E159</f>
         <v>0</v>
       </c>
-      <c r="E159" s="197">
-        <v>0</v>
-      </c>
-      <c r="F159" s="200"/>
+      <c r="E159" s="199">
+        <v>0</v>
+      </c>
+      <c r="F159" s="243"/>
     </row>
     <row r="160" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
@@ -6703,9 +6703,9 @@
       <c r="C160" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="D160" s="195"/>
-      <c r="E160" s="198"/>
-      <c r="F160" s="201"/>
+      <c r="D160" s="241"/>
+      <c r="E160" s="200"/>
+      <c r="F160" s="244"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
@@ -6715,9 +6715,9 @@
       <c r="C161" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="D161" s="195"/>
-      <c r="E161" s="198"/>
-      <c r="F161" s="201"/>
+      <c r="D161" s="241"/>
+      <c r="E161" s="200"/>
+      <c r="F161" s="244"/>
     </row>
     <row r="162" spans="1:6" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
@@ -6727,104 +6727,52 @@
       <c r="C162" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="D162" s="196"/>
-      <c r="E162" s="199"/>
-      <c r="F162" s="202"/>
+      <c r="D162" s="242"/>
+      <c r="E162" s="201"/>
+      <c r="F162" s="245"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="V5JqL91D/X9+VtzzrVSzEVeb2yPt8CyKtQkPU468epZbuvLqYrBQ+M+TSL9Hj7hYSePp/tnnqpxNK38JWHTWbg==" saltValue="tMFFy3XxVcpN0Vzhu8BjEA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="154">
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="E46:E48"/>
-    <mergeCell ref="F46:F48"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D77:D79"/>
-    <mergeCell ref="E77:E79"/>
-    <mergeCell ref="F77:F79"/>
-    <mergeCell ref="B64:B69"/>
-    <mergeCell ref="C64:C69"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D81:D83"/>
-    <mergeCell ref="E81:E83"/>
-    <mergeCell ref="F81:F83"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="D159:D162"/>
+    <mergeCell ref="E159:E162"/>
+    <mergeCell ref="F159:F162"/>
+    <mergeCell ref="D152:D157"/>
+    <mergeCell ref="E152:E157"/>
+    <mergeCell ref="F152:F157"/>
+    <mergeCell ref="D143:D144"/>
+    <mergeCell ref="E143:E144"/>
+    <mergeCell ref="F143:F144"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="C151:C152"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="C130:C131"/>
+    <mergeCell ref="D131:D132"/>
+    <mergeCell ref="E131:E132"/>
+    <mergeCell ref="F131:F132"/>
+    <mergeCell ref="B139:B141"/>
+    <mergeCell ref="C139:C141"/>
+    <mergeCell ref="D140:D141"/>
+    <mergeCell ref="E140:E141"/>
+    <mergeCell ref="F140:F141"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="B127:B129"/>
+    <mergeCell ref="C127:C129"/>
+    <mergeCell ref="D128:D129"/>
+    <mergeCell ref="E128:E129"/>
+    <mergeCell ref="F128:F129"/>
+    <mergeCell ref="F124:F125"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="E117:E118"/>
+    <mergeCell ref="F117:F118"/>
+    <mergeCell ref="B120:B125"/>
+    <mergeCell ref="C120:C125"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="E121:E122"/>
+    <mergeCell ref="F121:F122"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="E124:E125"/>
     <mergeCell ref="D109:D111"/>
     <mergeCell ref="E109:E111"/>
     <mergeCell ref="F109:F111"/>
@@ -6849,45 +6797,97 @@
     <mergeCell ref="F93:F94"/>
     <mergeCell ref="D96:D97"/>
     <mergeCell ref="E96:E97"/>
-    <mergeCell ref="B127:B129"/>
-    <mergeCell ref="C127:C129"/>
-    <mergeCell ref="D128:D129"/>
-    <mergeCell ref="E128:E129"/>
-    <mergeCell ref="F128:F129"/>
-    <mergeCell ref="F124:F125"/>
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="E117:E118"/>
-    <mergeCell ref="F117:F118"/>
-    <mergeCell ref="B120:B125"/>
-    <mergeCell ref="C120:C125"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="E121:E122"/>
-    <mergeCell ref="F121:F122"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="E124:E125"/>
-    <mergeCell ref="C147:C148"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="C151:C152"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="C130:C131"/>
-    <mergeCell ref="D131:D132"/>
-    <mergeCell ref="E131:E132"/>
-    <mergeCell ref="F131:F132"/>
-    <mergeCell ref="B139:B141"/>
-    <mergeCell ref="C139:C141"/>
-    <mergeCell ref="D140:D141"/>
-    <mergeCell ref="E140:E141"/>
-    <mergeCell ref="F140:F141"/>
-    <mergeCell ref="C135:C136"/>
-    <mergeCell ref="D159:D162"/>
-    <mergeCell ref="E159:E162"/>
-    <mergeCell ref="F159:F162"/>
-    <mergeCell ref="D152:D157"/>
-    <mergeCell ref="E152:E157"/>
-    <mergeCell ref="F152:F157"/>
-    <mergeCell ref="D143:D144"/>
-    <mergeCell ref="E143:E144"/>
-    <mergeCell ref="F143:F144"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D81:D83"/>
+    <mergeCell ref="E81:E83"/>
+    <mergeCell ref="F81:F83"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D77:D79"/>
+    <mergeCell ref="E77:E79"/>
+    <mergeCell ref="F77:F79"/>
+    <mergeCell ref="B64:B69"/>
+    <mergeCell ref="C64:C69"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="E46:E48"/>
+    <mergeCell ref="F46:F48"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
@@ -6925,19 +6925,19 @@
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
-      <c r="B2" s="253" t="s">
+      <c r="B2" s="269" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="254"/>
-      <c r="D2" s="254"/>
-      <c r="E2" s="254"/>
-      <c r="F2" s="254"/>
-      <c r="G2" s="254"/>
-      <c r="H2" s="254"/>
-      <c r="I2" s="254"/>
-      <c r="J2" s="254"/>
-      <c r="K2" s="254"/>
-      <c r="L2" s="255"/>
+      <c r="C2" s="270"/>
+      <c r="D2" s="270"/>
+      <c r="E2" s="270"/>
+      <c r="F2" s="270"/>
+      <c r="G2" s="270"/>
+      <c r="H2" s="270"/>
+      <c r="I2" s="270"/>
+      <c r="J2" s="270"/>
+      <c r="K2" s="270"/>
+      <c r="L2" s="271"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -6955,193 +6955,193 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="256" t="s">
+      <c r="B4" s="272" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="257"/>
-      <c r="D4" s="257"/>
-      <c r="E4" s="257"/>
-      <c r="F4" s="257"/>
-      <c r="G4" s="257"/>
-      <c r="H4" s="257"/>
-      <c r="I4" s="257"/>
-      <c r="J4" s="257"/>
-      <c r="K4" s="257"/>
-      <c r="L4" s="258"/>
+      <c r="C4" s="273"/>
+      <c r="D4" s="273"/>
+      <c r="E4" s="273"/>
+      <c r="F4" s="273"/>
+      <c r="G4" s="273"/>
+      <c r="H4" s="273"/>
+      <c r="I4" s="273"/>
+      <c r="J4" s="273"/>
+      <c r="K4" s="273"/>
+      <c r="L4" s="274"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="259" t="s">
+      <c r="B5" s="275" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="260"/>
-      <c r="D5" s="260"/>
-      <c r="E5" s="260"/>
-      <c r="F5" s="260"/>
-      <c r="G5" s="260"/>
-      <c r="H5" s="260"/>
-      <c r="I5" s="260"/>
-      <c r="J5" s="260"/>
-      <c r="K5" s="260"/>
-      <c r="L5" s="261"/>
+      <c r="C5" s="276"/>
+      <c r="D5" s="276"/>
+      <c r="E5" s="276"/>
+      <c r="F5" s="276"/>
+      <c r="G5" s="276"/>
+      <c r="H5" s="276"/>
+      <c r="I5" s="276"/>
+      <c r="J5" s="276"/>
+      <c r="K5" s="276"/>
+      <c r="L5" s="277"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="262"/>
-      <c r="C6" s="247"/>
-      <c r="D6" s="247"/>
-      <c r="E6" s="247"/>
-      <c r="F6" s="247"/>
-      <c r="G6" s="247"/>
-      <c r="H6" s="247"/>
-      <c r="I6" s="247"/>
-      <c r="J6" s="247"/>
-      <c r="K6" s="247"/>
-      <c r="L6" s="263"/>
+      <c r="B6" s="278"/>
+      <c r="C6" s="230"/>
+      <c r="D6" s="230"/>
+      <c r="E6" s="230"/>
+      <c r="F6" s="230"/>
+      <c r="G6" s="230"/>
+      <c r="H6" s="230"/>
+      <c r="I6" s="230"/>
+      <c r="J6" s="230"/>
+      <c r="K6" s="230"/>
+      <c r="L6" s="279"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="262"/>
-      <c r="C7" s="247"/>
-      <c r="D7" s="247"/>
-      <c r="E7" s="247"/>
-      <c r="F7" s="247"/>
-      <c r="G7" s="247"/>
-      <c r="H7" s="247"/>
-      <c r="I7" s="247"/>
-      <c r="J7" s="247"/>
-      <c r="K7" s="247"/>
-      <c r="L7" s="263"/>
+      <c r="B7" s="278"/>
+      <c r="C7" s="230"/>
+      <c r="D7" s="230"/>
+      <c r="E7" s="230"/>
+      <c r="F7" s="230"/>
+      <c r="G7" s="230"/>
+      <c r="H7" s="230"/>
+      <c r="I7" s="230"/>
+      <c r="J7" s="230"/>
+      <c r="K7" s="230"/>
+      <c r="L7" s="279"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="262"/>
-      <c r="C8" s="247"/>
-      <c r="D8" s="247"/>
-      <c r="E8" s="247"/>
-      <c r="F8" s="247"/>
-      <c r="G8" s="247"/>
-      <c r="H8" s="247"/>
-      <c r="I8" s="247"/>
-      <c r="J8" s="247"/>
-      <c r="K8" s="247"/>
-      <c r="L8" s="263"/>
+      <c r="B8" s="278"/>
+      <c r="C8" s="230"/>
+      <c r="D8" s="230"/>
+      <c r="E8" s="230"/>
+      <c r="F8" s="230"/>
+      <c r="G8" s="230"/>
+      <c r="H8" s="230"/>
+      <c r="I8" s="230"/>
+      <c r="J8" s="230"/>
+      <c r="K8" s="230"/>
+      <c r="L8" s="279"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="262" t="s">
+      <c r="B9" s="278" t="s">
         <v>130</v>
       </c>
-      <c r="C9" s="216"/>
-      <c r="D9" s="216"/>
-      <c r="E9" s="216"/>
-      <c r="F9" s="216"/>
-      <c r="G9" s="216"/>
-      <c r="H9" s="216"/>
-      <c r="I9" s="216"/>
-      <c r="J9" s="216"/>
-      <c r="K9" s="216"/>
-      <c r="L9" s="217"/>
+      <c r="C9" s="224"/>
+      <c r="D9" s="224"/>
+      <c r="E9" s="224"/>
+      <c r="F9" s="224"/>
+      <c r="G9" s="224"/>
+      <c r="H9" s="224"/>
+      <c r="I9" s="224"/>
+      <c r="J9" s="224"/>
+      <c r="K9" s="224"/>
+      <c r="L9" s="220"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="264"/>
-      <c r="C10" s="216"/>
-      <c r="D10" s="216"/>
-      <c r="E10" s="216"/>
-      <c r="F10" s="216"/>
-      <c r="G10" s="216"/>
-      <c r="H10" s="216"/>
-      <c r="I10" s="216"/>
-      <c r="J10" s="216"/>
-      <c r="K10" s="216"/>
-      <c r="L10" s="217"/>
+      <c r="B10" s="280"/>
+      <c r="C10" s="224"/>
+      <c r="D10" s="224"/>
+      <c r="E10" s="224"/>
+      <c r="F10" s="224"/>
+      <c r="G10" s="224"/>
+      <c r="H10" s="224"/>
+      <c r="I10" s="224"/>
+      <c r="J10" s="224"/>
+      <c r="K10" s="224"/>
+      <c r="L10" s="220"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="264"/>
-      <c r="C11" s="216"/>
-      <c r="D11" s="216"/>
-      <c r="E11" s="216"/>
-      <c r="F11" s="216"/>
-      <c r="G11" s="216"/>
-      <c r="H11" s="216"/>
-      <c r="I11" s="216"/>
-      <c r="J11" s="216"/>
-      <c r="K11" s="216"/>
-      <c r="L11" s="217"/>
+      <c r="B11" s="280"/>
+      <c r="C11" s="224"/>
+      <c r="D11" s="224"/>
+      <c r="E11" s="224"/>
+      <c r="F11" s="224"/>
+      <c r="G11" s="224"/>
+      <c r="H11" s="224"/>
+      <c r="I11" s="224"/>
+      <c r="J11" s="224"/>
+      <c r="K11" s="224"/>
+      <c r="L11" s="220"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="264"/>
-      <c r="C12" s="216"/>
-      <c r="D12" s="216"/>
-      <c r="E12" s="216"/>
-      <c r="F12" s="216"/>
-      <c r="G12" s="216"/>
-      <c r="H12" s="216"/>
-      <c r="I12" s="216"/>
-      <c r="J12" s="216"/>
-      <c r="K12" s="216"/>
-      <c r="L12" s="217"/>
+      <c r="B12" s="280"/>
+      <c r="C12" s="224"/>
+      <c r="D12" s="224"/>
+      <c r="E12" s="224"/>
+      <c r="F12" s="224"/>
+      <c r="G12" s="224"/>
+      <c r="H12" s="224"/>
+      <c r="I12" s="224"/>
+      <c r="J12" s="224"/>
+      <c r="K12" s="224"/>
+      <c r="L12" s="220"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="265" t="s">
+      <c r="B13" s="281" t="s">
         <v>135</v>
       </c>
-      <c r="C13" s="266"/>
-      <c r="D13" s="266"/>
-      <c r="E13" s="266"/>
-      <c r="F13" s="266"/>
-      <c r="G13" s="266"/>
-      <c r="H13" s="266"/>
-      <c r="I13" s="266"/>
-      <c r="J13" s="266"/>
-      <c r="K13" s="266"/>
-      <c r="L13" s="267"/>
+      <c r="C13" s="252"/>
+      <c r="D13" s="252"/>
+      <c r="E13" s="252"/>
+      <c r="F13" s="252"/>
+      <c r="G13" s="252"/>
+      <c r="H13" s="252"/>
+      <c r="I13" s="252"/>
+      <c r="J13" s="252"/>
+      <c r="K13" s="252"/>
+      <c r="L13" s="253"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="265"/>
-      <c r="C14" s="266"/>
-      <c r="D14" s="266"/>
-      <c r="E14" s="266"/>
-      <c r="F14" s="266"/>
-      <c r="G14" s="266"/>
-      <c r="H14" s="266"/>
-      <c r="I14" s="266"/>
-      <c r="J14" s="266"/>
-      <c r="K14" s="266"/>
-      <c r="L14" s="267"/>
+      <c r="B14" s="281"/>
+      <c r="C14" s="252"/>
+      <c r="D14" s="252"/>
+      <c r="E14" s="252"/>
+      <c r="F14" s="252"/>
+      <c r="G14" s="252"/>
+      <c r="H14" s="252"/>
+      <c r="I14" s="252"/>
+      <c r="J14" s="252"/>
+      <c r="K14" s="252"/>
+      <c r="L14" s="253"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="265"/>
-      <c r="C15" s="266"/>
-      <c r="D15" s="266"/>
-      <c r="E15" s="266"/>
-      <c r="F15" s="266"/>
-      <c r="G15" s="266"/>
-      <c r="H15" s="266"/>
-      <c r="I15" s="266"/>
-      <c r="J15" s="266"/>
-      <c r="K15" s="266"/>
-      <c r="L15" s="267"/>
+      <c r="B15" s="281"/>
+      <c r="C15" s="252"/>
+      <c r="D15" s="252"/>
+      <c r="E15" s="252"/>
+      <c r="F15" s="252"/>
+      <c r="G15" s="252"/>
+      <c r="H15" s="252"/>
+      <c r="I15" s="252"/>
+      <c r="J15" s="252"/>
+      <c r="K15" s="252"/>
+      <c r="L15" s="253"/>
     </row>
     <row r="16" spans="1:12" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="268"/>
-      <c r="C16" s="269"/>
-      <c r="D16" s="269"/>
-      <c r="E16" s="269"/>
-      <c r="F16" s="269"/>
-      <c r="G16" s="269"/>
-      <c r="H16" s="269"/>
-      <c r="I16" s="269"/>
-      <c r="J16" s="269"/>
-      <c r="K16" s="269"/>
-      <c r="L16" s="270"/>
+      <c r="B16" s="282"/>
+      <c r="C16" s="256"/>
+      <c r="D16" s="256"/>
+      <c r="E16" s="256"/>
+      <c r="F16" s="256"/>
+      <c r="G16" s="256"/>
+      <c r="H16" s="256"/>
+      <c r="I16" s="256"/>
+      <c r="J16" s="256"/>
+      <c r="K16" s="256"/>
+      <c r="L16" s="257"/>
     </row>
     <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
@@ -7159,144 +7159,144 @@
     </row>
     <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="250" t="s">
+      <c r="B18" s="266" t="s">
         <v>131</v>
       </c>
-      <c r="C18" s="251"/>
-      <c r="D18" s="251"/>
-      <c r="E18" s="251"/>
-      <c r="F18" s="251"/>
-      <c r="G18" s="251"/>
-      <c r="H18" s="251"/>
-      <c r="I18" s="251"/>
-      <c r="J18" s="251"/>
-      <c r="K18" s="251"/>
-      <c r="L18" s="252"/>
+      <c r="C18" s="267"/>
+      <c r="D18" s="267"/>
+      <c r="E18" s="267"/>
+      <c r="F18" s="267"/>
+      <c r="G18" s="267"/>
+      <c r="H18" s="267"/>
+      <c r="I18" s="267"/>
+      <c r="J18" s="267"/>
+      <c r="K18" s="267"/>
+      <c r="L18" s="268"/>
     </row>
     <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="271" t="s">
+      <c r="B19" s="259" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="272"/>
-      <c r="D19" s="272"/>
-      <c r="E19" s="272" t="s">
+      <c r="C19" s="260"/>
+      <c r="D19" s="260"/>
+      <c r="E19" s="260" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="272"/>
-      <c r="G19" s="272"/>
-      <c r="H19" s="272"/>
-      <c r="I19" s="272"/>
-      <c r="J19" s="272"/>
-      <c r="K19" s="272"/>
-      <c r="L19" s="273"/>
+      <c r="F19" s="260"/>
+      <c r="G19" s="260"/>
+      <c r="H19" s="260"/>
+      <c r="I19" s="260"/>
+      <c r="J19" s="260"/>
+      <c r="K19" s="260"/>
+      <c r="L19" s="261"/>
     </row>
     <row r="20" spans="1:12" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="274" t="s">
+      <c r="B20" s="262" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="275"/>
-      <c r="D20" s="275"/>
-      <c r="E20" s="276" t="s">
+      <c r="C20" s="263"/>
+      <c r="D20" s="263"/>
+      <c r="E20" s="264" t="s">
         <v>136</v>
       </c>
-      <c r="F20" s="276"/>
-      <c r="G20" s="276"/>
-      <c r="H20" s="276"/>
-      <c r="I20" s="276"/>
-      <c r="J20" s="276"/>
-      <c r="K20" s="276"/>
-      <c r="L20" s="277"/>
+      <c r="F20" s="264"/>
+      <c r="G20" s="264"/>
+      <c r="H20" s="264"/>
+      <c r="I20" s="264"/>
+      <c r="J20" s="264"/>
+      <c r="K20" s="264"/>
+      <c r="L20" s="265"/>
     </row>
     <row r="21" spans="1:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="278" t="s">
+      <c r="B21" s="250" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="279"/>
-      <c r="D21" s="279"/>
-      <c r="E21" s="266" t="s">
+      <c r="C21" s="251"/>
+      <c r="D21" s="251"/>
+      <c r="E21" s="252" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="266"/>
-      <c r="G21" s="266"/>
-      <c r="H21" s="266"/>
-      <c r="I21" s="266"/>
-      <c r="J21" s="266"/>
-      <c r="K21" s="266"/>
-      <c r="L21" s="267"/>
+      <c r="F21" s="252"/>
+      <c r="G21" s="252"/>
+      <c r="H21" s="252"/>
+      <c r="I21" s="252"/>
+      <c r="J21" s="252"/>
+      <c r="K21" s="252"/>
+      <c r="L21" s="253"/>
     </row>
     <row r="22" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="278" t="s">
+      <c r="B22" s="250" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="279"/>
-      <c r="D22" s="279"/>
-      <c r="E22" s="266" t="s">
+      <c r="C22" s="251"/>
+      <c r="D22" s="251"/>
+      <c r="E22" s="252" t="s">
         <v>132</v>
       </c>
-      <c r="F22" s="266"/>
-      <c r="G22" s="266"/>
-      <c r="H22" s="266"/>
-      <c r="I22" s="266"/>
-      <c r="J22" s="266"/>
-      <c r="K22" s="266"/>
-      <c r="L22" s="267"/>
+      <c r="F22" s="252"/>
+      <c r="G22" s="252"/>
+      <c r="H22" s="252"/>
+      <c r="I22" s="252"/>
+      <c r="J22" s="252"/>
+      <c r="K22" s="252"/>
+      <c r="L22" s="253"/>
     </row>
     <row r="23" spans="1:12" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="280" t="s">
+      <c r="B23" s="254" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="281"/>
-      <c r="D23" s="281"/>
-      <c r="E23" s="269" t="s">
+      <c r="C23" s="255"/>
+      <c r="D23" s="255"/>
+      <c r="E23" s="256" t="s">
         <v>133</v>
       </c>
-      <c r="F23" s="269"/>
-      <c r="G23" s="269"/>
-      <c r="H23" s="269"/>
-      <c r="I23" s="269"/>
-      <c r="J23" s="269"/>
-      <c r="K23" s="269"/>
-      <c r="L23" s="270"/>
+      <c r="F23" s="256"/>
+      <c r="G23" s="256"/>
+      <c r="H23" s="256"/>
+      <c r="I23" s="256"/>
+      <c r="J23" s="256"/>
+      <c r="K23" s="256"/>
+      <c r="L23" s="257"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="282"/>
-      <c r="C24" s="282"/>
-      <c r="D24" s="282"/>
-      <c r="E24" s="282"/>
-      <c r="F24" s="282"/>
-      <c r="G24" s="282"/>
-      <c r="H24" s="282"/>
-      <c r="I24" s="282"/>
-      <c r="J24" s="282"/>
-      <c r="K24" s="282"/>
-      <c r="L24" s="282"/>
+      <c r="B24" s="258"/>
+      <c r="C24" s="258"/>
+      <c r="D24" s="258"/>
+      <c r="E24" s="258"/>
+      <c r="F24" s="258"/>
+      <c r="G24" s="258"/>
+      <c r="H24" s="258"/>
+      <c r="I24" s="258"/>
+      <c r="J24" s="258"/>
+      <c r="K24" s="258"/>
+      <c r="L24" s="258"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="QMyLsAa895CIKR/udm7iMmpzZ5tEo+UHogROe/2G+h1J0BiZp6w3c0Qkf3b3bkuQ0FP5oGD2NUo0svpvnaqA0Q==" saltValue="zuJRB9aplmfzMdQS9d45Yg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="18">
+    <mergeCell ref="B18:L18"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="B5:L8"/>
+    <mergeCell ref="B9:L12"/>
+    <mergeCell ref="B13:L16"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:L19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:L20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:L21"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="E22:L22"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="E23:L23"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:L24"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:L19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:L20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:L21"/>
-    <mergeCell ref="B18:L18"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="B5:L8"/>
-    <mergeCell ref="B9:L12"/>
-    <mergeCell ref="B13:L16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
